--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,422 +526,422 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over2_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YRJ7Ked3</t>
+          <t>prDCqGwg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.07</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>2.63</v>
       </c>
       <c r="X2" t="n">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>4.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>26</v>
       </c>
-      <c r="AF2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jc9RBVNE</t>
+          <t>xC6ffXiB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Defensores Unidos</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA3" t="n">
         <v>10</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="AF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
         <v>26</v>
       </c>
-      <c r="AG3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>251</v>
-      </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AP3" t="n">
-        <v>41</v>
+        <v>2.03</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>1.83</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -949,347 +949,335 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U1LDLI0c</t>
+          <t>lzGzW2f3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>4.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.13</v>
+      </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="X4" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.91</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>4.65</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>5.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI4" t="n">
         <v>6</v>
       </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>301</v>
+        <v>10.75</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.5</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K4XEb2og</t>
+          <t>8vwl8a2d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>4.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="U5" t="n">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>2.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.62</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.5</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="AD5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>81</v>
-      </c>
       <c r="AK5" t="n">
-        <v>101</v>
+        <v>11.75</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.5</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.8</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SdcfeTv1</t>
+          <t>WzuDWKSN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1298,799 +1286,5498 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE6" t="n">
         <v>4.9</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>5.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>5.7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>10.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>9.75</v>
       </c>
       <c r="AL6" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.78</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ei2E0OGt</t>
+          <t>G8GqRbjo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>7.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>6.8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>8.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>7.9</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.93</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WYqTwC7U</t>
+          <t>YJFifhjo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
         <v>4.5</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>1.2</v>
+      </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.62</v>
       </c>
-      <c r="X8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y8" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.57</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>21</v>
       </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>17</v>
-      </c>
       <c r="AN8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IeBKsf85</t>
+          <t>binABo1N</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.25</v>
+      </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.63</v>
+        <v>7.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.44</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>26</v>
       </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>13</v>
-      </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WYLvQA34</t>
+          <t>0Q7wIerh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sumqayit</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kapaz</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.57</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.25</v>
+      </c>
       <c r="U10" t="n">
-        <v>3.6</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
-        <v>2.37</v>
+        <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.88</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.72</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>37</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.1</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.75</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>40</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bLNWRWYi</t>
+          <t>tzGoGZC4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Neftci Baku</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.37</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.33</v>
+      </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.02</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.62</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.3</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE11" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
       <c r="AF11" t="n">
-        <v>45</v>
+        <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.9</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.1</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK11" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
       <c r="AL11" t="n">
-        <v>6.9</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.25</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>50</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>65FZAahM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sheffield Wed</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tbbY6VZj</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2y155wGq</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KvdzGl2M</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pWhwRi4m</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cambridge Utd</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lIj3gk7r</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bristol Rovers</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bolton</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pUuuioNG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Crawley</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Charlton</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ILjXdfwf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mansfield</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dC7NNs9F</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ENGLAND - LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Wrexham</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6FtP9KMj</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Samgurali</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>FC Gareji Sagarejo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4Edf7cQF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Saarbrucken</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WOtZaFIk</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cottbus</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hannover II</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>19</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0tj35yeS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ingolstadt</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Alemannia Aachen</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WA10oG3d</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Stuttgart II</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>W0bn9Je3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Unterhaching</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>xn7SOZRH</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mumbai City</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rLqPUgnp</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PSBS Biak Numfor</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nDCHzpz3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Persik Kediri</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UyrXSXGd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PSS Sleman</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pAFOUWwo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Grobina</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BFC Daugavpils</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>x42AhzWi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RFS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Jelgava</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UL7r4xaK</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Den Haag</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Jong AZ</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N33" t="n">
+        <v>19</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>tE6Mdfif</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2TfVfYL6</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jong Ajax</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>FC Emmen</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MXReBg6m</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Roda</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Helmond</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MmfXZEDE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Queen's Park</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vygU5bjf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Radomlje</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>800</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MFSf2rR1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Oleksandriya</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ay9kOPmL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Dyn. Kyiv</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>FK Zorya Luhansk</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>350</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>175</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2ZmUGste</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Polissya Zhytomyr</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>600</v>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>tKaLI3Br</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Karpaty Lviv</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Shakhtar Donetsk</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>900</v>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>pO07TSp3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Barry</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>500</v>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>tjfGR6FF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Briton Ferry</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>E3hOPppS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Flint</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>350</v>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>nDxIBx3d</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11/03/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>700</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>600</v>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -710,40 +710,40 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.73</v>
       </c>
-      <c r="P2" t="n">
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" t="n">
         <v>4.75</v>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>23</v>
@@ -764,22 +764,22 @@
         <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
         <v>4.33</v>
@@ -978,67 +978,67 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K4" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="X4" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
         <v>45</v>
@@ -1047,37 +1047,37 @@
         <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1259,58 +1259,58 @@
         <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J6" t="n">
         <v>4.15</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
         <v>16.5</v>
@@ -1325,37 +1325,37 @@
         <v>40</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AF6" t="n">
         <v>5.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
@@ -1395,13 +1395,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1413,28 +1413,28 @@
         <v>2.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U7" t="n">
         <v>1.44</v>
@@ -1449,28 +1449,28 @@
         <v>1.93</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>90</v>
       </c>
       <c r="AC7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1479,7 +1479,7 @@
         <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.25</v>
@@ -1560,16 +1560,16 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>4.5</v>
@@ -1578,10 +1578,10 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
@@ -1639,10 +1639,10 @@
       </c>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
@@ -1709,10 +1709,10 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1850,10 +1850,10 @@
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -2102,13 +2102,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
@@ -2126,16 +2126,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2144,10 +2144,10 @@
         <v>1.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W12" t="n">
         <v>1.67</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -2273,10 +2273,10 @@
         <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2402,16 +2402,16 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
         <v>2.2</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2.1</v>
@@ -2543,10 +2543,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2588,7 +2588,7 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2959,10 +2959,10 @@
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2971,31 +2971,31 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R18" t="n">
         <v>2</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3010,7 +3010,7 @@
         <v>1.95</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -3028,7 +3028,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
         <v>7</v>
@@ -3040,7 +3040,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>8.5</v>
@@ -3241,25 +3241,25 @@
         <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3280,10 +3280,10 @@
         <v>1.29</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W20" t="n">
         <v>1.8</v>
@@ -3295,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
@@ -3310,7 +3310,7 @@
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3331,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>17</v>
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -3480,10 +3480,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>3.4</v>
@@ -3492,7 +3492,7 @@
         <v>1.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V22" t="n">
         <v>2.75</v>
@@ -3510,13 +3510,13 @@
         <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="n">
         <v>29</v>
@@ -3525,7 +3525,7 @@
         <v>10</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -3549,7 +3549,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>201</v>
@@ -3633,7 +3633,7 @@
         <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V23" t="n">
         <v>3.75</v>
@@ -3774,7 +3774,7 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
@@ -3873,19 +3873,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.3</v>
       </c>
       <c r="L25" t="n">
         <v>2.88</v>
@@ -3897,37 +3897,37 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V25" t="n">
         <v>3.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>17</v>
@@ -3936,13 +3936,13 @@
         <v>11</v>
       </c>
       <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD25" t="n">
         <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -3951,19 +3951,19 @@
         <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -3975,7 +3975,7 @@
         <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4056,7 +4056,7 @@
         <v>1.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -4155,109 +4155,109 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.6</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X27" t="n">
         <v>2</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.18</v>
-      </c>
       <c r="Y27" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4299,16 +4299,16 @@
         <v>1.82</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
         <v>2.37</v>
       </c>
       <c r="K28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
         <v>4.15</v>
@@ -4322,13 +4322,13 @@
         <v>3.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T28" t="n">
         <v>1.36</v>
@@ -4346,7 +4346,7 @@
         <v>1.98</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z28" t="n">
         <v>9</v>
@@ -4367,25 +4367,25 @@
         <v>11.75</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
         <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>32</v>
@@ -4394,7 +4394,7 @@
         <v>37</v>
       </c>
       <c r="AO28" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4442,21 +4442,21 @@
         <v>2.55</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q29" t="n">
         <v>1.98</v>
@@ -4471,34 +4471,34 @@
         <v>1.26</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V29" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W29" t="n">
         <v>1.7</v>
       </c>
       <c r="X29" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD29" t="n">
         <v>35</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>30</v>
       </c>
       <c r="AE29" t="n">
         <v>8.5</v>
@@ -4513,10 +4513,10 @@
         <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>9.5</v>
@@ -4525,10 +4525,10 @@
         <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4706,41 +4706,103 @@
           <t>BFC Daugavpils</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.37</v>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>250</v>
+      </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
@@ -4777,41 +4839,99 @@
           <t>Jelgava</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13</v>
+      </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.93</v>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>600</v>
+      </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
@@ -4849,22 +4969,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L33" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -4873,61 +4993,61 @@
         <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V33" t="n">
         <v>3.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
       </c>
       <c r="AD33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE33" t="n">
         <v>19</v>
       </c>
-      <c r="AE33" t="n">
-        <v>21</v>
-      </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -4939,19 +5059,19 @@
         <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5032,7 +5152,7 @@
         <v>1.53</v>
       </c>
       <c r="U34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V34" t="n">
         <v>3.5</v>
@@ -5147,7 +5267,7 @@
         <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L35" t="n">
         <v>2.75</v>
@@ -5177,7 +5297,7 @@
         <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
         <v>3.5</v>
@@ -5451,10 +5571,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>3</v>
@@ -5562,52 +5682,52 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T38" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V38" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W38" t="n">
         <v>1.93</v>
@@ -5616,37 +5736,37 @@
         <v>1.78</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>14</v>
       </c>
       <c r="AB38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="n">
         <v>50</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AG38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH38" t="n">
         <v>90</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AJ38" t="n">
         <v>8</v>
@@ -5655,10 +5775,10 @@
         <v>8.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN38" t="n">
         <v>32</v>
@@ -5703,99 +5823,99 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="U39" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="V39" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="W39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="X39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Y39" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AA39" t="n">
         <v>9.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AC39" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD39" t="n">
         <v>45</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH39" t="n">
         <v>250</v>
       </c>
       <c r="AI39" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL39" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="n">
         <v>150</v>
@@ -5840,105 +5960,105 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H40" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L40" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="n">
-        <v>2.87</v>
+        <v>2.47</v>
       </c>
       <c r="T40" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="U40" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V40" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="X40" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AA40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB40" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AG40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK40" t="n">
         <v>32</v>
       </c>
-      <c r="AH40" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>35</v>
-      </c>
       <c r="AL40" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AM40" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AO40" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -5977,60 +6097,60 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="K41" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L41" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P41" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="R41" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T41" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U41" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="W41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X41" t="n">
         <v>1.75</v>
       </c>
-      <c r="X41" t="n">
-        <v>1.85</v>
-      </c>
       <c r="Y41" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA41" t="n">
         <v>12.5</v>
@@ -6042,40 +6162,40 @@
         <v>35</v>
       </c>
       <c r="AD41" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF41" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AJ41" t="n">
         <v>9</v>
       </c>
       <c r="AK41" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL41" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6114,48 +6234,48 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="H42" t="n">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="R42" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="U42" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="V42" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="W42" t="n">
         <v>1.98</v>
@@ -6164,55 +6284,55 @@
         <v>1.65</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z42" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AC42" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD42" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE42" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH42" t="n">
         <v>110</v>
       </c>
       <c r="AI42" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AJ42" t="n">
         <v>6.4</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AN42" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6254,19 +6374,19 @@
         <v>1.39</v>
       </c>
       <c r="H43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J43" t="n">
         <v>1.85</v>
       </c>
       <c r="K43" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6275,37 +6395,37 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="Q43" t="n">
         <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S43" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Y43" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z43" t="n">
         <v>7.3</v>
@@ -6326,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG43" t="n">
         <v>18</v>
@@ -6335,7 +6455,7 @@
         <v>75</v>
       </c>
       <c r="AI43" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
@@ -6347,7 +6467,7 @@
         <v>150</v>
       </c>
       <c r="AM43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN43" t="n">
         <v>60</v>
@@ -6536,25 +6656,25 @@
         <v>1.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L45" t="n">
         <v>4.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O45" t="n">
         <v>1.19</v>
@@ -6563,40 +6683,40 @@
         <v>4.15</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S45" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X45" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y45" t="n">
         <v>8.75</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
         <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
         <v>11.75</v>
@@ -6605,7 +6725,7 @@
         <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF45" t="n">
         <v>8</v>
@@ -6614,13 +6734,13 @@
         <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="n">
         <v>16</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -701,7 +701,7 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -710,10 +710,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -734,16 +734,16 @@
         <v>1.11</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="X2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Y2" t="n">
         <v>4.75</v>
@@ -761,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="n">
         <v>5</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -851,16 +851,16 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.88</v>
@@ -932,7 +932,7 @@
         <v>81</v>
       </c>
       <c r="AN3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO3" t="n">
         <v>101</v>
@@ -978,43 +978,43 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I4" t="n">
         <v>2.77</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.1</v>
@@ -1023,7 +1023,7 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
         <v>2.37</v>
@@ -1032,13 +1032,13 @@
         <v>1.52</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>45</v>
@@ -1047,16 +1047,16 @@
         <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AF4" t="n">
         <v>5.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>175</v>
@@ -1068,7 +1068,7 @@
         <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>35</v>
@@ -1077,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1283,7 +1283,7 @@
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Q6" t="n">
         <v>2.55</v>
@@ -1298,10 +1298,10 @@
         <v>1.16</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W6" t="n">
         <v>2.05</v>
@@ -1310,16 +1310,16 @@
         <v>1.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
         <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
         <v>40</v>
@@ -1337,13 +1337,13 @@
         <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK6" t="n">
         <v>9.5</v>
@@ -1395,52 +1395,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.2</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="W7" t="n">
         <v>1.78</v>
@@ -1449,28 +1449,28 @@
         <v>1.93</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
         <v>90</v>
       </c>
       <c r="AC7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1479,22 +1479,22 @@
         <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>500</v>
@@ -1578,10 +1578,10 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1697,22 +1697,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1721,10 +1721,10 @@
         <v>1.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.83</v>
@@ -1733,7 +1733,7 @@
         <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1742,7 +1742,7 @@
         <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>21</v>
@@ -1769,7 +1769,7 @@
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1778,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO9" t="n">
         <v>301</v>
@@ -1835,7 +1835,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1850,10 +1850,10 @@
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1985,16 +1985,16 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
         <v>3.4</v>
@@ -2015,10 +2015,10 @@
         <v>1.91</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2045,25 +2045,25 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2102,16 +2102,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2120,10 +2120,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2132,10 +2132,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2273,10 +2273,10 @@
         <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2426,10 +2426,10 @@
         <v>1.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W14" t="n">
         <v>1.91</v>
@@ -2441,7 +2441,7 @@
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>9</v>
@@ -2456,10 +2456,10 @@
         <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
@@ -3259,7 +3259,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3378,41 +3378,95 @@
           <t>FC Gareji Sagarejo</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.6</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.42</v>
+      </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>450</v>
+      </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
@@ -3450,16 +3504,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -3492,7 +3546,7 @@
         <v>1.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V22" t="n">
         <v>2.75</v>
@@ -3534,7 +3588,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -3549,7 +3603,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>201</v>
@@ -3603,7 +3657,7 @@
         <v>1.95</v>
       </c>
       <c r="K23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
         <v>5.5</v>
@@ -3612,7 +3666,7 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
         <v>1.13</v>
@@ -3633,7 +3687,7 @@
         <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V23" t="n">
         <v>3.75</v>
@@ -3645,13 +3699,13 @@
         <v>2.25</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3756,16 +3810,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
         <v>3.25</v>
@@ -3774,7 +3828,7 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
@@ -3786,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z24" t="n">
         <v>9.5</v>
@@ -3798,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
         <v>26</v>
@@ -3822,7 +3876,7 @@
         <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -3903,10 +3957,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
         <v>2.75</v>
@@ -3915,7 +3969,7 @@
         <v>1.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V25" t="n">
         <v>3.25</v>
@@ -4014,13 +4068,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
@@ -4029,13 +4083,13 @@
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4056,7 +4110,7 @@
         <v>1.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -4074,16 +4128,16 @@
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
       </c>
       <c r="AC26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD26" t="n">
         <v>29</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>34</v>
       </c>
       <c r="AE26" t="n">
         <v>12</v>
@@ -4107,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
         <v>15</v>
@@ -4197,16 +4251,16 @@
         <v>1.3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
         <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
@@ -4218,7 +4272,7 @@
         <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
         <v>23</v>
@@ -4707,83 +4761,87 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="S31" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+        <v>1.32</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.47</v>
+      </c>
       <c r="W31" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="X31" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>8.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH31" t="n">
         <v>40</v>
       </c>
       <c r="AI31" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.75</v>
@@ -4792,10 +4850,10 @@
         <v>8</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>21</v>
@@ -4840,94 +4898,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H32" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="S32" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T32" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="X32" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>6.2</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
         <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AH32" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AK32" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
       </c>
       <c r="AM32" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AN32" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -4978,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="n">
         <v>2.6</v>
@@ -5011,7 +5069,7 @@
         <v>1.62</v>
       </c>
       <c r="U33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V33" t="n">
         <v>3.75</v>
@@ -5119,52 +5177,52 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W34" t="n">
         <v>1.57</v>
       </c>
-      <c r="R34" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X34" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
         <v>10</v>
@@ -5182,25 +5240,25 @@
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>7.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
         <v>23</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
         <v>41</v>
@@ -5217,10 +5275,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="35">
@@ -5267,7 +5325,7 @@
         <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L35" t="n">
         <v>2.75</v>
@@ -5297,7 +5355,7 @@
         <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
         <v>3.5</v>
@@ -5460,7 +5518,7 @@
         <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
         <v>17</v>
@@ -5487,10 +5545,10 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL36" t="n">
         <v>41</v>
@@ -5682,13 +5740,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J38" t="n">
         <v>4.55</v>
@@ -5736,7 +5794,7 @@
         <v>1.78</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z38" t="n">
         <v>23</v>
@@ -5757,7 +5815,7 @@
         <v>6.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG38" t="n">
         <v>16.5</v>
@@ -5769,7 +5827,7 @@
         <v>6.1</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK38" t="n">
         <v>8.5</v>
@@ -5823,19 +5881,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H39" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J39" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L39" t="n">
         <v>7.4</v>
@@ -5843,37 +5901,37 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V39" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W39" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="X39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z39" t="n">
         <v>5.3</v>
@@ -5882,19 +5940,19 @@
         <v>9.25</v>
       </c>
       <c r="AB39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF39" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
         <v>30</v>
@@ -5903,16 +5961,16 @@
         <v>250</v>
       </c>
       <c r="AI39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM39" t="n">
         <v>120</v>
@@ -6234,27 +6292,27 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I42" t="n">
         <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>2.15</v>
       </c>
       <c r="L42" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
         <v>2.95</v>
@@ -6275,10 +6333,10 @@
         <v>1.4</v>
       </c>
       <c r="V42" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
         <v>1.65</v>
@@ -6290,28 +6348,28 @@
         <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="n">
         <v>120</v>
       </c>
       <c r="AC42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI42" t="n">
         <v>6</v>
@@ -6512,22 +6570,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -6539,25 +6597,25 @@
         <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q44" t="n">
         <v>1.6</v>
       </c>
       <c r="R44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S44" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T44" t="n">
         <v>1.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="V44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="W44" t="n">
         <v>1.5</v>
@@ -6569,19 +6627,19 @@
         <v>11.75</v>
       </c>
       <c r="Z44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE44" t="n">
         <v>8.5</v>
@@ -6590,28 +6648,28 @@
         <v>6.9</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ44" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO44" t="n">
         <v>200</v>
@@ -6653,103 +6711,103 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="J45" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K45" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L45" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.19</v>
       </c>
       <c r="P45" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S45" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="T45" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U45" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V45" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Y45" t="n">
         <v>8.75</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA45" t="n">
         <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK45" t="n">
         <v>16</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>15</v>
-      </c>
       <c r="AL45" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN45" t="n">
         <v>40</v>
@@ -6794,78 +6852,78 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H46" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="S46" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T46" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U46" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="V46" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="W46" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="X46" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y46" t="n">
         <v>11.25</v>
       </c>
       <c r="Z46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB46" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AC46" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="n">
         <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
         <v>27</v>
@@ -6874,16 +6932,16 @@
         <v>100</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ46" t="n">
         <v>150</v>
       </c>
       <c r="AK46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AM46" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -701,10 +701,10 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -884,7 +884,7 @@
         <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y3" t="n">
         <v>4.33</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
@@ -1023,37 +1023,37 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="X4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="n">
         <v>45</v>
       </c>
-      <c r="AC4" t="n">
-        <v>40</v>
-      </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1062,22 +1062,22 @@
         <v>175</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AJ4" t="n">
         <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AL4" t="n">
         <v>35</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1117,28 +1117,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>1.78</v>
       </c>
       <c r="L5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1147,10 +1147,10 @@
         <v>2.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>5.2</v>
@@ -1168,28 +1168,28 @@
         <v>2.18</v>
       </c>
       <c r="X5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB5" t="n">
         <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AF5" t="n">
         <v>5.3</v>
@@ -1198,25 +1198,25 @@
         <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
         <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
@@ -1256,37 +1256,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>4.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R6" t="n">
         <v>1.45</v>
@@ -1301,25 +1301,25 @@
         <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="n">
         <v>40</v>
@@ -1328,13 +1328,13 @@
         <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>100</v>
@@ -1343,16 +1343,16 @@
         <v>6.1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>9.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="n">
         <v>40</v>
@@ -1545,10 +1545,10 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
@@ -1578,16 +1578,16 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1596,16 +1596,16 @@
         <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1617,10 +1617,10 @@
         <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1637,7 +1637,9 @@
       <c r="AN8" t="n">
         <v>51</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
+      <c r="AO8" t="n">
+        <v>501</v>
+      </c>
       <c r="AP8" t="n">
         <v>1.83</v>
       </c>
@@ -1697,22 +1699,22 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1721,7 +1723,7 @@
         <v>1.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V9" t="n">
         <v>2.5</v>
@@ -1820,13 +1822,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1835,7 +1837,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1883,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
         <v>29</v>
@@ -1892,10 +1894,10 @@
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
@@ -1913,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>19</v>
@@ -1961,13 +1963,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
@@ -1985,22 +1987,22 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2063,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2111,7 +2113,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2120,22 +2122,22 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2243,7 +2245,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
@@ -2414,10 +2416,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2525,22 +2527,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2567,10 +2569,10 @@
         <v>1.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W15" t="n">
         <v>2.25</v>
@@ -2609,13 +2611,13 @@
         <v>81</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>81</v>
@@ -2624,7 +2626,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>501</v>
@@ -2674,13 +2676,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>2.25</v>
@@ -2704,34 +2706,34 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
         <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>8.5</v>
@@ -2815,16 +2817,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
         <v>2.25</v>
@@ -2857,19 +2859,19 @@
         <v>1.36</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V17" t="n">
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
@@ -2881,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
@@ -2893,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -2902,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
         <v>8.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -2986,19 +2988,19 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V18" t="n">
         <v>2.75</v>
@@ -3139,10 +3141,10 @@
         <v>1.29</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V19" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W19" t="n">
         <v>1.8</v>
@@ -3238,13 +3240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>4</v>
@@ -3253,13 +3255,13 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3268,10 +3270,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3280,10 +3282,10 @@
         <v>1.29</v>
       </c>
       <c r="U20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V20" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W20" t="n">
         <v>1.8</v>
@@ -3292,7 +3294,7 @@
         <v>1.95</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
@@ -3301,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>29</v>
@@ -3325,7 +3327,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -3504,16 +3506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -3546,7 +3548,7 @@
         <v>1.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V22" t="n">
         <v>2.75</v>
@@ -3588,7 +3590,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -3603,7 +3605,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>201</v>
@@ -3687,7 +3689,7 @@
         <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V23" t="n">
         <v>3.75</v>
@@ -3828,7 +3830,7 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
@@ -3957,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S25" t="n">
         <v>2.75</v>
@@ -4089,7 +4091,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4209,22 +4211,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4239,16 +4241,16 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
@@ -4263,7 +4265,7 @@
         <v>1.91</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>15</v>
@@ -4272,7 +4274,7 @@
         <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>23</v>
@@ -4296,13 +4298,13 @@
         <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>9.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
@@ -4898,58 +4900,58 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="H32" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L32" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R32" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="S32" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="X32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC32" t="n">
         <v>9.25</v>
@@ -4958,34 +4960,34 @@
         <v>27</v>
       </c>
       <c r="AE32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH32" t="n">
         <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
       </c>
       <c r="AM32" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -5192,22 +5194,22 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
         <v>1.3</v>
@@ -5275,10 +5277,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="35">
@@ -5881,42 +5883,42 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>2.07</v>
       </c>
       <c r="L39" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U39" t="n">
         <v>1.47</v>
@@ -5931,7 +5933,7 @@
         <v>1.42</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Z39" t="n">
         <v>5.3</v>
@@ -5949,7 +5951,7 @@
         <v>50</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF39" t="n">
         <v>8.25</v>
@@ -6018,42 +6020,42 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K40" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L40" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6062,58 +6064,58 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="X40" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AC40" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE40" t="n">
         <v>11.25</v>
       </c>
-      <c r="AD40" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
-      </c>
       <c r="AF40" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH40" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
         <v>28</v>
       </c>
       <c r="AJ40" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AM40" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN40" t="n">
         <v>150</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>100</v>
       </c>
       <c r="AO40" t="n">
         <v>900</v>
@@ -6155,102 +6157,102 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J41" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L41" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P41" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="X41" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA41" t="n">
         <v>12.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AF41" t="n">
         <v>6.1</v>
       </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI41" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AJ41" t="n">
         <v>9</v>
       </c>
       <c r="AK41" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AL41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AN41" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="n">
         <v>800</v>
@@ -6292,99 +6294,99 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="K42" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="L42" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P42" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="T42" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="U42" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V42" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X42" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y42" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AB42" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AC42" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH42" t="n">
         <v>120</v>
       </c>
       <c r="AI42" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN42" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -692,40 +692,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>6.5</v>
@@ -749,16 +749,16 @@
         <v>4.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>41</v>
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
         <v>23</v>
@@ -776,13 +776,13 @@
         <v>101</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="J4" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
@@ -1014,7 +1014,7 @@
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.1</v>
@@ -1032,16 +1032,16 @@
         <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
         <v>45</v>
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AF4" t="n">
         <v>5.3</v>
@@ -1062,19 +1062,19 @@
         <v>175</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN4" t="n">
         <v>60</v>
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1425,13 +1425,13 @@
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
         <v>1.3</v>
@@ -1443,28 +1443,28 @@
         <v>2.82</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="n">
         <v>40</v>
       </c>
       <c r="AD7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
         <v>6.8</v>
@@ -1482,19 +1482,19 @@
         <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK7" t="n">
-        <v>8</v>
-      </c>
       <c r="AL7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM7" t="n">
         <v>15.5</v>
       </c>
-      <c r="AM7" t="n">
-        <v>15</v>
-      </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>500</v>
@@ -1545,7 +1545,7 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1578,10 +1578,10 @@
         <v>1.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2.1</v>
@@ -1684,16 +1684,16 @@
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
@@ -1723,19 +1723,19 @@
         <v>1.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1747,16 +1747,16 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1765,13 +1765,13 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1780,10 +1780,10 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1825,7 +1825,7 @@
         <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
         <v>2.15</v>
@@ -1915,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>19</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -2011,10 +2011,10 @@
         <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
@@ -2047,10 +2047,10 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -2065,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2416,10 +2416,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2443,7 +2443,7 @@
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
         <v>9</v>
@@ -2530,58 +2530,58 @@
         <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.2</v>
       </c>
-      <c r="L15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2596,22 +2596,22 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
@@ -2620,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
         <v>67</v>
@@ -2700,16 +2700,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2718,7 +2718,7 @@
         <v>1.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -2838,19 +2838,19 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
@@ -2859,7 +2859,7 @@
         <v>1.36</v>
       </c>
       <c r="U17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V17" t="n">
         <v>3</v>
@@ -2871,7 +2871,7 @@
         <v>2.05</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
@@ -2910,7 +2910,7 @@
         <v>8.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -2988,19 +2988,19 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V18" t="n">
         <v>2.75</v>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
@@ -3117,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3132,25 +3132,25 @@
         <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V19" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3240,16 +3240,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -3258,10 +3258,10 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3270,10 +3270,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3282,10 +3282,10 @@
         <v>1.29</v>
       </c>
       <c r="U20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="W20" t="n">
         <v>1.8</v>
@@ -3300,19 +3300,19 @@
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3333,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>17</v>
@@ -3381,37 +3381,37 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K21" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V21" t="n">
         <v>2.42</v>
@@ -3419,55 +3419,55 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="n">
-        <v>7.7</v>
+        <v>8.75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
       </c>
       <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
         <v>30</v>
       </c>
-      <c r="AN21" t="n">
-        <v>37</v>
-      </c>
       <c r="AO21" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3548,7 +3548,7 @@
         <v>1.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V22" t="n">
         <v>2.75</v>
@@ -3647,16 +3647,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="n">
         <v>2.63</v>
@@ -3677,22 +3677,22 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
         <v>1.22</v>
       </c>
       <c r="V23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
         <v>1.57</v>
@@ -3707,7 +3707,7 @@
         <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3830,7 +3830,7 @@
         <v>1.33</v>
       </c>
       <c r="U24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V24" t="n">
         <v>2.75</v>
@@ -3959,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
         <v>2.75</v>
@@ -4091,7 +4091,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4352,42 +4352,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L28" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="T28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U28" t="n">
         <v>1.38</v>
@@ -4396,58 +4396,58 @@
         <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>8.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
         <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO28" t="n">
         <v>450</v>
@@ -4489,30 +4489,30 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I29" t="n">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L29" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q29" t="n">
         <v>1.98</v>
@@ -4521,46 +4521,46 @@
         <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V29" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="W29" t="n">
         <v>1.7</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Y29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE29" t="n">
         <v>8</v>
       </c>
-      <c r="Z29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -4569,22 +4569,22 @@
         <v>60</v>
       </c>
       <c r="AI29" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AN29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4626,42 +4626,42 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q30" t="n">
         <v>1.82</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S30" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="T30" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U30" t="n">
         <v>1.4</v>
@@ -4670,25 +4670,25 @@
         <v>2.52</v>
       </c>
       <c r="W30" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X30" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Y30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD30" t="n">
         <v>25</v>
@@ -4697,31 +4697,31 @@
         <v>9.75</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO30" t="n">
         <v>400</v>
@@ -4922,10 +4922,10 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S32" t="n">
         <v>1.75</v>
@@ -4936,10 +4936,10 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="X32" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Y32" t="n">
         <v>8.75</v>
@@ -5170,16 +5170,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K34" t="n">
         <v>2.38</v>
@@ -5194,22 +5194,22 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U34" t="n">
         <v>1.3</v>
@@ -5233,7 +5233,7 @@
         <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>13</v>
@@ -5277,10 +5277,10 @@
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="35">
@@ -5315,13 +5315,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5336,25 +5336,25 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.29</v>
@@ -5390,7 +5390,7 @@
         <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5422,10 +5422,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="36">
@@ -5460,22 +5460,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K36" t="n">
         <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -5484,22 +5484,22 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S36" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U36" t="n">
         <v>1.33</v>
@@ -5514,22 +5514,22 @@
         <v>2.2</v>
       </c>
       <c r="Y36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA36" t="n">
         <v>9</v>
       </c>
-      <c r="Z36" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
         <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -5547,13 +5547,13 @@
         <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
         <v>26</v>
@@ -5742,52 +5742,52 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J38" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="K38" t="n">
         <v>2.12</v>
       </c>
       <c r="L38" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S38" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T38" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U38" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W38" t="n">
         <v>1.93</v>
@@ -5796,31 +5796,31 @@
         <v>1.78</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA38" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB38" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF38" t="n">
         <v>6.6</v>
       </c>
-      <c r="AF38" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
         <v>90</v>
@@ -5829,19 +5829,19 @@
         <v>6.1</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AK38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM38" t="n">
         <v>15</v>
       </c>
-      <c r="AM38" t="n">
-        <v>16</v>
-      </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
         <v>800</v>
@@ -5883,57 +5883,57 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L39" t="n">
         <v>7.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.3</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P39" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T39" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="U39" t="n">
         <v>1.47</v>
       </c>
       <c r="V39" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="X39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Z39" t="n">
         <v>5.3</v>
@@ -5942,19 +5942,19 @@
         <v>9.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD39" t="n">
         <v>50</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
         <v>30</v>
@@ -5963,7 +5963,7 @@
         <v>250</v>
       </c>
       <c r="AI39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>45</v>
@@ -6020,42 +6020,42 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P40" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q40" t="n">
         <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6064,22 +6064,22 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="X40" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Y40" t="n">
         <v>6.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AC40" t="n">
         <v>11.5</v>
@@ -6088,28 +6088,28 @@
         <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH40" t="n">
         <v>150</v>
       </c>
       <c r="AI40" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK40" t="n">
         <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
@@ -6157,42 +6157,42 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="K41" t="n">
         <v>1.93</v>
       </c>
       <c r="L41" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U41" t="n">
         <v>1.5</v>
@@ -6201,22 +6201,22 @@
         <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X41" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC41" t="n">
         <v>37</v>
@@ -6225,37 +6225,37 @@
         <v>50</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AF41" t="n">
         <v>6.1</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH41" t="n">
         <v>100</v>
       </c>
       <c r="AI41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AJ41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK41" t="n">
         <v>9</v>
       </c>
-      <c r="AK41" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AL41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM41" t="n">
         <v>19</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>19.5</v>
       </c>
       <c r="AN41" t="n">
         <v>37</v>
       </c>
       <c r="AO41" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6431,22 +6431,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I43" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6458,16 +6458,16 @@
         <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R43" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T43" t="n">
         <v>1.53</v>
@@ -6476,7 +6476,7 @@
         <v>1.29</v>
       </c>
       <c r="V43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
@@ -6491,10 +6491,10 @@
         <v>7.3</v>
       </c>
       <c r="AA43" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC43" t="n">
         <v>10.75</v>
@@ -6506,7 +6506,7 @@
         <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG43" t="n">
         <v>18</v>
@@ -6530,7 +6530,7 @@
         <v>65</v>
       </c>
       <c r="AN43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
         <v>500</v>
@@ -6854,105 +6854,105 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="K46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L46" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P46" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="R46" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="S46" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="U46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V46" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="W46" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X46" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="Y46" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC46" t="n">
         <v>10</v>
       </c>
       <c r="AD46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG46" t="n">
         <v>26</v>
       </c>
-      <c r="AE46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>27</v>
-      </c>
       <c r="AH46" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>175</v>
+      </c>
+      <c r="AK46" t="n">
         <v>50</v>
       </c>
-      <c r="AJ46" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>45</v>
-      </c>
       <c r="AL46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AM46" t="n">
         <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO46" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -695,103 +695,103 @@
         <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.4</v>
       </c>
-      <c r="S2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Y2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="Z2" t="n">
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>23</v>
       </c>
-      <c r="AH2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>21</v>
       </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -836,7 +836,7 @@
         <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
@@ -845,16 +845,16 @@
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -869,22 +869,22 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
         <v>4.33</v>
@@ -893,13 +893,13 @@
         <v>5.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
         <v>51</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
@@ -1026,34 +1026,34 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Y4" t="n">
         <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1062,22 +1062,22 @@
         <v>175</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1259,88 +1259,88 @@
         <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L6" t="n">
         <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.53</v>
       </c>
-      <c r="P6" t="n">
+      <c r="V6" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="X6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB6" t="n">
         <v>55</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1349,7 +1349,7 @@
         <v>9.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>24</v>
@@ -1357,7 +1357,9 @@
       <c r="AN6" t="n">
         <v>40</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>900</v>
+      </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
@@ -1398,16 +1400,16 @@
         <v>4.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
         <v>2.42</v>
@@ -1416,16 +1418,16 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
@@ -1434,7 +1436,7 @@
         <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U7" t="n">
         <v>1.38</v>
@@ -1443,13 +1445,13 @@
         <v>2.82</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
@@ -1458,7 +1460,7 @@
         <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="n">
         <v>40</v>
@@ -1467,28 +1469,28 @@
         <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
         <v>65</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM7" t="n">
         <v>15.5</v>
@@ -1545,7 +1547,7 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -1554,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" t="n">
         <v>2.38</v>
@@ -1575,7 +1577,7 @@
         <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1684,58 +1686,58 @@
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
         <v>11</v>
@@ -1747,16 +1749,16 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1765,13 +1767,13 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -1780,10 +1782,10 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1837,31 +1839,31 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
         <v>1.44</v>
@@ -1993,16 +1995,16 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2113,7 +2115,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2128,16 +2130,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2386,7 +2388,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2395,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2404,28 +2406,28 @@
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
         <v>1.44</v>
@@ -2443,7 +2445,7 @@
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>9</v>
@@ -2533,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2.1</v>
@@ -2542,43 +2544,43 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
@@ -2605,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>101</v>
@@ -2620,10 +2622,10 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
         <v>67</v>
@@ -2676,7 +2678,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2694,13 +2696,13 @@
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
@@ -2715,7 +2717,7 @@
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.36</v>
@@ -2823,7 +2825,7 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2835,28 +2837,28 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2958,31 +2960,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
         <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -2997,19 +2999,19 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.36</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -3030,7 +3032,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>7</v>
@@ -3045,7 +3047,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>8.5</v>
@@ -3057,10 +3059,10 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3099,13 +3101,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3117,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
         <v>3.25</v>
@@ -3138,7 +3140,7 @@
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3258,10 +3260,10 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3270,10 +3272,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
@@ -3381,19 +3383,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L21" t="n">
         <v>4.1</v>
@@ -3411,10 +3413,10 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="V21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -3461,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN21" t="n">
         <v>30</v>
@@ -3788,7 +3790,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3812,16 +3814,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S24" t="n">
         <v>3.25</v>
@@ -4091,7 +4093,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4211,28 +4213,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4241,16 +4243,16 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
@@ -4265,7 +4267,7 @@
         <v>1.91</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>15</v>
@@ -4274,10 +4276,10 @@
         <v>11</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
@@ -4295,16 +4297,16 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
@@ -4489,27 +4491,27 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>2.77</v>
@@ -4524,7 +4526,7 @@
         <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U29" t="n">
         <v>1.39</v>
@@ -4533,58 +4535,58 @@
         <v>2.55</v>
       </c>
       <c r="W29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>1.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="Z29" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN29" t="n">
         <v>37</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>32</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4626,36 +4628,36 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
         <v>1.82</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>2.87</v>
@@ -4664,10 +4666,10 @@
         <v>1.31</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V30" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W30" t="n">
         <v>1.65</v>
@@ -4676,55 +4678,55 @@
         <v>1.98</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AL30" t="n">
         <v>45</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>35</v>
       </c>
       <c r="AO30" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4775,10 +4777,10 @@
         <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4786,37 +4788,37 @@
         <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>1.78</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T31" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V31" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA31" t="n">
         <v>8.25</v>
@@ -4828,13 +4830,13 @@
         <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>9.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG31" t="n">
         <v>10.75</v>
@@ -4843,7 +4845,7 @@
         <v>40</v>
       </c>
       <c r="AI31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.75</v>
@@ -4855,10 +4857,10 @@
         <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>250</v>
@@ -4903,82 +4905,82 @@
         <v>1.09</v>
       </c>
       <c r="H32" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="I32" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="J32" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="X32" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AC32" t="n">
         <v>9.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG32" t="n">
         <v>29</v>
       </c>
       <c r="AH32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
@@ -5029,22 +5031,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K33" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -5059,16 +5061,16 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
         <v>1.25</v>
@@ -5077,22 +5079,22 @@
         <v>3.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
@@ -5104,25 +5106,25 @@
         <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="n">
         <v>21</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>19</v>
-      </c>
       <c r="AL33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
@@ -5135,8 +5137,12 @@
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
+      <c r="AR33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5194,22 +5200,22 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U34" t="n">
         <v>1.3</v>
@@ -5315,22 +5321,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5339,10 +5345,10 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
         <v>1.6</v>
@@ -5357,10 +5363,10 @@
         <v>1.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W35" t="n">
         <v>1.5</v>
@@ -5372,25 +5378,25 @@
         <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
         <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="n">
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5399,19 +5405,19 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="n">
         <v>21</v>
@@ -5460,13 +5466,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
         <v>2.63</v>
@@ -5490,7 +5496,7 @@
         <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R36" t="n">
         <v>2.1</v>
@@ -5508,7 +5514,7 @@
         <v>3.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X36" t="n">
         <v>2.2</v>
@@ -5529,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -5556,7 +5562,7 @@
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
         <v>29</v>
@@ -5631,10 +5637,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S37" t="n">
         <v>3</v>
@@ -5649,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X37" t="n">
         <v>2.1</v>
@@ -5883,102 +5889,102 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="J39" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L39" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T39" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="X39" t="n">
         <v>1.47</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.44</v>
       </c>
       <c r="Y39" t="n">
         <v>4.85</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AA39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB39" t="n">
         <v>9.25</v>
       </c>
-      <c r="AB39" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AC39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF39" t="n">
         <v>7.8</v>
       </c>
-      <c r="AF39" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG39" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI39" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN39" t="n">
         <v>120</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>150</v>
       </c>
       <c r="AO39" t="n">
         <v>101</v>
@@ -6020,42 +6026,42 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I40" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K40" t="n">
         <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Q40" t="n">
         <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="T40" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6064,7 +6070,7 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X40" t="n">
         <v>1.52</v>
@@ -6073,13 +6079,13 @@
         <v>6.2</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC40" t="n">
         <v>11.5</v>
@@ -6088,28 +6094,28 @@
         <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH40" t="n">
         <v>150</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ40" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL40" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
@@ -6166,7 +6172,7 @@
         <v>2.02</v>
       </c>
       <c r="J41" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
         <v>1.93</v>
@@ -6177,22 +6183,22 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P41" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S41" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U41" t="n">
         <v>1.5</v>
@@ -6201,16 +6207,16 @@
         <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="X41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
@@ -6219,25 +6225,25 @@
         <v>55</v>
       </c>
       <c r="AC41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD41" t="n">
         <v>50</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF41" t="n">
         <v>6.1</v>
       </c>
       <c r="AG41" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
         <v>100</v>
       </c>
       <c r="AI41" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AJ41" t="n">
         <v>8.5</v>
@@ -6294,60 +6300,60 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="H42" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J42" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.75</v>
       </c>
-      <c r="R42" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S42" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="U42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V42" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W42" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="n">
         <v>23</v>
@@ -6362,34 +6368,34 @@
         <v>90</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI42" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AK42" t="n">
         <v>8.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO42" t="n">
         <v>800</v>
@@ -6446,7 +6452,7 @@
         <v>2.52</v>
       </c>
       <c r="L43" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6467,7 +6473,7 @@
         <v>2.3</v>
       </c>
       <c r="S43" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T43" t="n">
         <v>1.53</v>
@@ -6482,7 +6488,7 @@
         <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Y43" t="n">
         <v>8.25</v>
@@ -6500,7 +6506,7 @@
         <v>10.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE43" t="n">
         <v>9</v>
@@ -6530,7 +6536,7 @@
         <v>65</v>
       </c>
       <c r="AN43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO43" t="n">
         <v>500</v>
@@ -6572,82 +6578,82 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.52</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L44" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P44" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S44" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U44" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X44" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
         <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD44" t="n">
         <v>21</v>
       </c>
       <c r="AE44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AG44" t="n">
         <v>10.75</v>
@@ -6656,10 +6662,10 @@
         <v>35</v>
       </c>
       <c r="AI44" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK44" t="n">
         <v>9.5</v>
@@ -6668,13 +6674,13 @@
         <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN44" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO44" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6857,75 +6863,75 @@
         <v>1.14</v>
       </c>
       <c r="H46" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L46" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P46" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="R46" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="S46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T46" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="U46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="V46" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="W46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y46" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z46" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB46" t="n">
         <v>8</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.8</v>
       </c>
       <c r="AC46" t="n">
         <v>10</v>
       </c>
       <c r="AD46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE46" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="n">
         <v>26</v>
@@ -6937,19 +6943,19 @@
         <v>55</v>
       </c>
       <c r="AJ46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM46" t="n">
         <v>175</v>
       </c>
-      <c r="AK46" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>700</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>200</v>
-      </c>
       <c r="AN46" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO46" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.88</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>3.6</v>
@@ -728,22 +728,22 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" t="n">
         <v>4.33</v>
@@ -755,16 +755,16 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
         <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -785,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -851,10 +851,10 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.62</v>
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
@@ -1008,13 +1008,13 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
         <v>1.1</v>
@@ -1023,61 +1023,61 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="X4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -1120,103 +1120,103 @@
         <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="I5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q5" t="n">
         <v>3.2</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.85</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.2</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.9</v>
-      </c>
       <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>10.5</v>
       </c>
       <c r="AB5" t="n">
         <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.6</v>
+        <v>4.15</v>
       </c>
       <c r="AF5" t="n">
         <v>5.3</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI5" t="n">
         <v>6.4</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
         <v>45</v>
       </c>
-      <c r="AM5" t="n">
-        <v>40</v>
-      </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
@@ -1256,106 +1256,106 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.13</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.18</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="X6" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
         <v>55</v>
       </c>
       <c r="AC6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN6" t="n">
         <v>50</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>40</v>
       </c>
       <c r="AO6" t="n">
         <v>900</v>
@@ -1397,109 +1397,109 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.42</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.82</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="n">
         <v>40</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1541,88 +1541,88 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
         <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1643,10 +1643,10 @@
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1701,25 +1701,25 @@
         <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T9" t="n">
         <v>1.22</v>
@@ -1827,61 +1827,61 @@
         <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -1896,40 +1896,44 @@
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
@@ -1965,13 +1969,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
         <v>2.5</v>
@@ -1989,22 +1993,22 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2013,10 +2017,10 @@
         <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
@@ -2037,7 +2041,7 @@
         <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
@@ -2049,10 +2053,10 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -2067,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2109,13 +2113,13 @@
         <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2247,103 +2251,103 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>9</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>7</v>
       </c>
-      <c r="AA13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AG13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="n">
         <v>11</v>
       </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2388,31 +2392,31 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>3.2</v>
@@ -2427,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="n">
         <v>1.44</v>
@@ -2436,16 +2440,16 @@
         <v>2.63</v>
       </c>
       <c r="W14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
         <v>9</v>
@@ -2466,7 +2470,7 @@
         <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2529,61 +2533,61 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2592,34 +2596,34 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>81</v>
@@ -2628,7 +2632,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="n">
         <v>501</v>
@@ -2678,10 +2682,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -2690,46 +2694,46 @@
         <v>2.25</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
         <v>7</v>
@@ -2750,7 +2754,7 @@
         <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
@@ -2780,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2837,7 +2841,7 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
@@ -2846,19 +2850,19 @@
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2978,13 +2982,13 @@
         <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -2999,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3101,13 +3105,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3119,13 +3123,13 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
         <v>3.25</v>
@@ -3140,7 +3144,7 @@
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3167,7 +3171,7 @@
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>34</v>
@@ -3188,7 +3192,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>9.5</v>
@@ -3242,7 +3246,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
@@ -3257,7 +3261,7 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3266,22 +3270,22 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.29</v>
       </c>
       <c r="U20" t="n">
         <v>1.4</v>
@@ -3290,16 +3294,16 @@
         <v>2.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>11</v>
@@ -3308,13 +3312,13 @@
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3326,10 +3330,10 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -3338,13 +3342,13 @@
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3508,28 +3512,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -3568,13 +3572,13 @@
         <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>29</v>
@@ -3592,7 +3596,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -3604,10 +3608,10 @@
         <v>29</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
         <v>201</v>
@@ -3649,7 +3653,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -3679,10 +3683,10 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -3790,22 +3794,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3814,16 +3818,16 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
         <v>3.25</v>
@@ -3844,13 +3848,13 @@
         <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
         <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>17</v>
@@ -3934,7 +3938,7 @@
         <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>2.2</v>
@@ -3943,7 +3947,7 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
         <v>2.88</v>
@@ -3952,49 +3956,49 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>23</v>
@@ -4003,10 +4007,10 @@
         <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4015,13 +4019,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -4030,7 +4034,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>151</v>
@@ -4120,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X26" t="n">
         <v>2.1</v>
@@ -4216,25 +4220,25 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -4255,25 +4259,25 @@
         <v>1.3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X27" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
         <v>34</v>
@@ -4306,10 +4310,10 @@
         <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
         <v>29</v>
@@ -4357,16 +4361,16 @@
         <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
         <v>4.2</v>
       </c>
       <c r="J28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.22</v>
       </c>
       <c r="L28" t="n">
         <v>4.45</v>
@@ -4374,22 +4378,22 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="T28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U28" t="n">
         <v>1.38</v>
@@ -4419,25 +4423,25 @@
         <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
       </c>
       <c r="AH28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK28" t="n">
         <v>14</v>
@@ -4491,42 +4495,42 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L29" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U29" t="n">
         <v>1.39</v>
@@ -4538,25 +4542,25 @@
         <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
         <v>8.25</v>
@@ -4571,22 +4575,22 @@
         <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM29" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4628,22 +4632,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4654,79 +4658,79 @@
         <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
         <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="T30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U30" t="n">
         <v>1.39</v>
       </c>
       <c r="V30" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W30" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="Z30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE30" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
         <v>10</v>
       </c>
-      <c r="AF30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AL30" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN30" t="n">
         <v>29</v>
       </c>
-      <c r="AN30" t="n">
-        <v>35</v>
-      </c>
       <c r="AO30" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4902,22 +4906,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H32" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="I32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J32" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4930,18 +4934,18 @@
         <v>3.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.07</v>
+        <v>2.24</v>
       </c>
       <c r="X32" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Y32" t="n">
         <v>9.75</v>
@@ -4950,7 +4954,7 @@
         <v>6.3</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB32" t="n">
         <v>5.7</v>
@@ -4959,37 +4963,37 @@
         <v>9.25</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI32" t="n">
         <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
       </c>
       <c r="AM32" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AN32" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -5031,7 +5035,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
@@ -5040,10 +5044,10 @@
         <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L33" t="n">
         <v>6.5</v>
@@ -5106,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
         <v>17</v>
@@ -5176,19 +5180,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
         <v>4</v>
@@ -5218,10 +5222,10 @@
         <v>1.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W34" t="n">
         <v>1.57</v>
@@ -5233,7 +5237,7 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
         <v>8.5</v>
@@ -5242,7 +5246,7 @@
         <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
         <v>21</v>
@@ -5251,7 +5255,7 @@
         <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
@@ -5260,10 +5264,10 @@
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
         <v>13</v>
@@ -5272,13 +5276,13 @@
         <v>41</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN34" t="n">
         <v>29</v>
       </c>
       <c r="AO34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5321,22 +5325,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5345,16 +5349,16 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S35" t="n">
         <v>2.5</v>
@@ -5375,16 +5379,16 @@
         <v>2.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
         <v>19</v>
@@ -5414,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>17</v>
@@ -5428,10 +5432,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="36">
@@ -5490,13 +5494,13 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
         <v>2.1</v>
@@ -5514,13 +5518,13 @@
         <v>3.25</v>
       </c>
       <c r="W36" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
         <v>2.2</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
@@ -5550,7 +5554,7 @@
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ36" t="n">
         <v>19</v>
@@ -5637,10 +5641,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>3</v>
@@ -5655,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X37" t="n">
         <v>2.1</v>
@@ -5748,106 +5752,106 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="J38" t="n">
-        <v>4.85</v>
+        <v>4.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T38" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V38" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="W38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AC38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="n">
         <v>50</v>
       </c>
-      <c r="AD38" t="n">
-        <v>55</v>
-      </c>
       <c r="AE38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH38" t="n">
         <v>90</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN38" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO38" t="n">
         <v>800</v>
@@ -5889,48 +5893,48 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="K39" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L39" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R39" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T39" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V39" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="W39" t="n">
         <v>2.35</v>
@@ -5939,52 +5943,52 @@
         <v>1.47</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA39" t="n">
         <v>9</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
         <v>45</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH39" t="n">
         <v>200</v>
       </c>
       <c r="AI39" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL39" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AO39" t="n">
         <v>101</v>
@@ -6026,13 +6030,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H40" t="n">
         <v>4.85</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.7</v>
@@ -6046,22 +6050,22 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="T40" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6070,46 +6074,46 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X40" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA40" t="n">
         <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>10.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI40" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK40" t="n">
         <v>37</v>
@@ -6121,7 +6125,7 @@
         <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AO40" t="n">
         <v>900</v>
@@ -6172,54 +6176,54 @@
         <v>2.02</v>
       </c>
       <c r="J41" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="K41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="L41" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P41" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="X41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB41" t="n">
         <v>55</v>
@@ -6228,37 +6232,37 @@
         <v>40</v>
       </c>
       <c r="AD41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE41" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF41" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH41" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI41" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK41" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AL41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO41" t="n">
         <v>900</v>
@@ -6303,54 +6307,54 @@
         <v>6.9</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I42" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J42" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T42" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="V42" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="W42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="X42" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
         <v>40</v>
@@ -6365,37 +6369,37 @@
         <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH42" t="n">
         <v>150</v>
       </c>
       <c r="AI42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>5.8</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>5.9</v>
-      </c>
       <c r="AK42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL42" t="n">
         <v>8.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO42" t="n">
         <v>800</v>
@@ -6437,22 +6441,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6473,7 +6477,7 @@
         <v>2.3</v>
       </c>
       <c r="S43" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T43" t="n">
         <v>1.53</v>
@@ -6485,61 +6489,61 @@
         <v>3.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X43" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Y43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA43" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z43" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB43" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC43" t="n">
         <v>10.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE43" t="n">
         <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL43" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6722,19 +6726,19 @@
         <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J45" t="n">
         <v>2.05</v>
       </c>
       <c r="K45" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L45" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -6764,16 +6768,16 @@
         <v>1.3</v>
       </c>
       <c r="V45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W45" t="n">
         <v>1.65</v>
       </c>
       <c r="X45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
         <v>8.25</v>
@@ -6788,31 +6792,31 @@
         <v>11.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="n">
         <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ45" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK45" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM45" t="n">
         <v>45</v>
@@ -6863,45 +6867,45 @@
         <v>1.14</v>
       </c>
       <c r="H46" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I46" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.44</v>
       </c>
       <c r="K46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L46" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P46" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R46" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="S46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U46" t="n">
         <v>1.17</v>
       </c>
       <c r="V46" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="W46" t="n">
         <v>1.8</v>
@@ -6913,13 +6917,13 @@
         <v>13.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AC46" t="n">
         <v>10</v>
@@ -6931,25 +6935,25 @@
         <v>32</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG46" t="n">
         <v>26</v>
       </c>
       <c r="AH46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL46" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AM46" t="n">
         <v>175</v>
@@ -6958,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="AO46" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -710,34 +710,34 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
         <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
         <v>3.2</v>
@@ -1014,7 +1014,7 @@
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T4" t="n">
         <v>1.1</v>
@@ -1023,7 +1023,7 @@
         <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>2.42</v>
@@ -1032,28 +1032,28 @@
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
         <v>17.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="n">
         <v>60</v>
       </c>
-      <c r="AC4" t="n">
-        <v>50</v>
-      </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1062,24 +1062,26 @@
         <v>200</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>101</v>
+      </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
@@ -1117,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H5" t="n">
         <v>2.47</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
@@ -1138,25 +1140,25 @@
         <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U5" t="n">
         <v>1.75</v>
@@ -1171,16 +1173,16 @@
         <v>1.52</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA5" t="n">
         <v>11.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="n">
         <v>35</v>
@@ -1189,22 +1191,22 @@
         <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AF5" t="n">
         <v>5.3</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>175</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
@@ -1216,9 +1218,11 @@
         <v>45</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO5" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>101</v>
+      </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
@@ -1406,13 +1410,13 @@
         <v>2.07</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1436,7 +1440,7 @@
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
@@ -1445,25 +1449,25 @@
         <v>2.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X7" t="n">
         <v>1.83</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB7" t="n">
         <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="n">
         <v>45</v>
@@ -1481,22 +1485,22 @@
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
         <v>700</v>
@@ -1538,7 +1542,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1547,31 +1551,31 @@
         <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1586,10 +1590,10 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1601,7 +1605,7 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
@@ -1643,10 +1647,10 @@
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1836,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
@@ -1845,7 +1849,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1969,10 +1973,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
@@ -1993,22 +1997,22 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2017,10 +2021,10 @@
         <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>7.5</v>
@@ -2041,13 +2045,13 @@
         <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>51</v>
@@ -2071,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AO11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2110,91 +2114,91 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
@@ -2212,7 +2216,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2251,103 +2255,103 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.44</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI13" t="n">
         <v>12</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
         <v>17</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2392,28 +2396,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2422,10 +2426,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2446,19 +2450,19 @@
         <v>1.83</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2467,7 +2471,7 @@
         <v>8.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2476,25 +2480,25 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
@@ -2533,16 +2537,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2587,7 +2591,7 @@
         <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2617,10 +2621,10 @@
         <v>81</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
@@ -2632,7 +2636,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>501</v>
@@ -2712,10 +2716,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2829,7 +2833,7 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2841,13 +2845,13 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2862,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2970,7 +2974,7 @@
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
@@ -2982,13 +2986,13 @@
         <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -3003,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3105,13 +3109,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3123,13 +3127,13 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
         <v>3.25</v>
@@ -3144,7 +3148,7 @@
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3252,7 +3256,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
@@ -3261,16 +3265,16 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
         <v>3.5</v>
@@ -3285,7 +3289,7 @@
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U20" t="n">
         <v>1.4</v>
@@ -3387,45 +3391,45 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
         <v>7.8</v>
@@ -3437,40 +3441,40 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF21" t="n">
         <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>50</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
         <v>350</v>
@@ -3653,7 +3657,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -3683,10 +3687,10 @@
         <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -3794,7 +3798,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
@@ -3983,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
         <v>2.1</v>
@@ -4124,7 +4128,7 @@
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X26" t="n">
         <v>2.1</v>
@@ -4265,10 +4269,10 @@
         <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
@@ -4358,39 +4362,39 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
         <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.22</v>
       </c>
-      <c r="K28" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L28" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
         <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="T28" t="n">
         <v>1.38</v>
@@ -4423,13 +4427,13 @@
         <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4438,10 +4442,10 @@
         <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
         <v>14</v>
@@ -4495,22 +4499,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -4518,10 +4522,10 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R29" t="n">
         <v>1.65</v>
@@ -4533,7 +4537,7 @@
         <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V29" t="n">
         <v>2.55</v>
@@ -4542,25 +4546,25 @@
         <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB29" t="n">
         <v>30</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE29" t="n">
         <v>8.25</v>
@@ -4575,22 +4579,22 @@
         <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AJ29" t="n">
         <v>13.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AL29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4632,22 +4636,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4661,7 +4665,7 @@
         <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
         <v>2.82</v>
@@ -4682,7 +4686,7 @@
         <v>2.02</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
         <v>12.5</v>
@@ -4694,10 +4698,10 @@
         <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
         <v>10.25</v>
@@ -4712,22 +4716,22 @@
         <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AL30" t="n">
         <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>400</v>
@@ -4769,22 +4773,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.15</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -4807,10 +4811,10 @@
         <v>1.31</v>
       </c>
       <c r="U31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V31" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="W31" t="n">
         <v>1.71</v>
@@ -4819,7 +4823,7 @@
         <v>2.02</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z31" t="n">
         <v>11.25</v>
@@ -4840,34 +4844,34 @@
         <v>9.75</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AK31" t="n">
         <v>8</v>
       </c>
       <c r="AL31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4906,97 +4910,97 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="L32" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="R32" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="X32" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AC32" t="n">
         <v>9.25</v>
       </c>
       <c r="AD32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG32" t="n">
         <v>28</v>
       </c>
-      <c r="AE32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>32</v>
-      </c>
       <c r="AH32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AK32" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
       </c>
       <c r="AM32" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AO32" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5035,22 +5039,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I33" t="n">
         <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -5089,10 +5093,10 @@
         <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA33" t="n">
         <v>8.5</v>
@@ -5110,7 +5114,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
         <v>17</v>
@@ -5128,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
@@ -5183,25 +5187,25 @@
         <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.2</v>
@@ -5210,10 +5214,10 @@
         <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="n">
         <v>2.63</v>
@@ -5240,7 +5244,7 @@
         <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
@@ -5258,7 +5262,7 @@
         <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -5282,7 +5286,7 @@
         <v>29</v>
       </c>
       <c r="AO34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5325,13 +5329,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
@@ -5470,7 +5474,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
@@ -5641,16 +5645,16 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
         <v>1.36</v>
@@ -5752,19 +5756,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
         <v>1.88</v>
       </c>
       <c r="J38" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
         <v>2.47</v>
@@ -5773,7 +5777,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
@@ -5800,16 +5804,16 @@
         <v>2.65</v>
       </c>
       <c r="W38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X38" t="n">
         <v>1.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
         <v>13.5</v>
@@ -5821,22 +5825,22 @@
         <v>40</v>
       </c>
       <c r="AD38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
@@ -5845,16 +5849,16 @@
         <v>8.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN38" t="n">
         <v>32</v>
       </c>
       <c r="AO38" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5893,99 +5897,99 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L39" t="n">
         <v>7.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.3</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T39" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U39" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="V39" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="W39" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="X39" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AA39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC39" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AH39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI39" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
         <v>150</v>
@@ -6167,25 +6171,29 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="K41" t="n">
         <v>1.9</v>
       </c>
       <c r="L41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>2.77</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
       <c r="O41" t="n">
         <v>1.47</v>
       </c>
@@ -6211,16 +6219,16 @@
         <v>2.18</v>
       </c>
       <c r="W41" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="X41" t="n">
         <v>1.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA41" t="n">
         <v>13.5</v>
@@ -6235,7 +6243,7 @@
         <v>60</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF41" t="n">
         <v>6.2</v>
@@ -6247,16 +6255,16 @@
         <v>120</v>
       </c>
       <c r="AI41" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK41" t="n">
         <v>9.25</v>
       </c>
       <c r="AL41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM41" t="n">
         <v>20</v>
@@ -6304,87 +6312,87 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H42" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I42" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="J42" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="L42" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P42" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="U42" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="V42" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="W42" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="X42" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="n">
         <v>23</v>
       </c>
       <c r="AB42" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AC42" t="n">
         <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AG42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AJ42" t="n">
         <v>5.8</v>
@@ -6393,13 +6401,13 @@
         <v>8.75</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AM42" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="n">
         <v>800</v>
@@ -6441,22 +6449,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H43" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J43" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="K43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L43" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6483,67 +6491,67 @@
         <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V43" t="n">
         <v>3.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="X43" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="Y43" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA43" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB43" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AC43" t="n">
         <v>10.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE43" t="n">
         <v>9</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM43" t="n">
         <v>70</v>
       </c>
-      <c r="AI43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM43" t="n">
+      <c r="AN43" t="n">
         <v>60</v>
       </c>
-      <c r="AN43" t="n">
-        <v>55</v>
-      </c>
       <c r="AO43" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -716,16 +716,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>8</v>
@@ -734,10 +734,10 @@
         <v>1.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>26</v>
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -785,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
         <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.18</v>
@@ -1005,7 +1005,7 @@
         <v>1.75</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
         <v>3.2</v>
@@ -1014,7 +1014,7 @@
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
         <v>1.1</v>
@@ -1035,19 +1035,19 @@
         <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="n">
         <v>4.25</v>
@@ -1065,19 +1065,19 @@
         <v>5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1119,106 +1119,106 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="L5" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AF5" t="n">
         <v>5.3</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1260,106 +1260,106 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>4.65</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="W6" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.65</v>
+        <v>5.3</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AJ6" t="n">
         <v>10.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
         <v>900</v>
@@ -1410,13 +1410,13 @@
         <v>2.07</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1425,7 +1425,7 @@
         <v>6.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>2.75</v>
@@ -1440,37 +1440,37 @@
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X7" t="n">
         <v>1.83</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>60</v>
       </c>
       <c r="AC7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
         <v>6.1</v>
@@ -1485,22 +1485,22 @@
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
         <v>700</v>
@@ -1542,22 +1542,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1584,10 +1584,10 @@
         <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
@@ -1602,7 +1602,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1614,7 +1614,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
@@ -1626,13 +1626,13 @@
         <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1647,10 +1647,10 @@
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1711,10 +1711,10 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
         <v>2.3</v>
@@ -1735,16 +1735,16 @@
         <v>2.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>9.5</v>
@@ -1759,13 +1759,13 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
@@ -1783,13 +1783,13 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1837,10 +1837,10 @@
         <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
@@ -1849,7 +1849,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1870,10 +1870,10 @@
         <v>1.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
@@ -1882,19 +1882,19 @@
         <v>1.73</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2003,16 +2003,16 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2036,7 +2036,7 @@
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2054,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>12</v>
@@ -2123,7 +2123,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2174,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
         <v>5.75</v>
@@ -2267,16 +2267,16 @@
         <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2312,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
         <v>8.5</v>
@@ -2324,10 +2324,10 @@
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>7.5</v>
@@ -2345,13 +2345,13 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2414,10 +2414,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2456,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>19</v>
@@ -2480,7 +2480,7 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -2489,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -2555,10 +2555,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2591,7 +2591,7 @@
         <v>1.57</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2612,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -2845,13 +2845,13 @@
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2866,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2986,13 +2986,13 @@
         <v>2.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.75</v>
@@ -3007,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3109,46 +3109,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3163,7 +3163,7 @@
         <v>1.91</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3181,13 +3181,13 @@
         <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
@@ -3196,7 +3196,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>9.5</v>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>2.2</v>
@@ -3262,67 +3262,67 @@
         <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
         <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF20" t="n">
         <v>6.5</v>
@@ -3334,13 +3334,13 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
@@ -3349,10 +3349,10 @@
         <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3391,32 +3391,32 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
         <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L21" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
         <v>1.39</v>
       </c>
       <c r="V21" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z21" t="n">
         <v>7.8</v>
@@ -3441,43 +3441,43 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF21" t="n">
         <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
         <v>28</v>
       </c>
-      <c r="AN21" t="n">
-        <v>32</v>
-      </c>
       <c r="AO21" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3516,28 +3516,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -3570,22 +3570,22 @@
         <v>2</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
         <v>10</v>
@@ -3600,22 +3600,22 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>201</v>
@@ -3657,34 +3657,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q23" t="n">
         <v>1.4</v>
@@ -3693,10 +3693,10 @@
         <v>2.88</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
         <v>1.22</v>
@@ -3705,19 +3705,19 @@
         <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA23" t="n">
         <v>9</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3726,10 +3726,10 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
         <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3798,82 +3798,82 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X24" t="n">
         <v>1.91</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>11</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2</v>
-      </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
       <c r="AF24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -3882,25 +3882,25 @@
         <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
         <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3960,7 +3960,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -3981,7 +3981,7 @@
         <v>1.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
@@ -4122,7 +4122,7 @@
         <v>1.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -4221,22 +4221,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -4245,85 +4245,85 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I29" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q29" t="n">
         <v>1.98</v>
@@ -4537,7 +4537,7 @@
         <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V29" t="n">
         <v>2.55</v>
@@ -4549,22 +4549,22 @@
         <v>1.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE29" t="n">
         <v>8.25</v>
@@ -4579,22 +4579,22 @@
         <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4932,10 +4932,10 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="S32" t="n">
         <v>1.83</v>
@@ -4946,10 +4946,10 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="X32" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Y32" t="n">
         <v>7.9</v>
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
@@ -5075,13 +5075,13 @@
         <v>2.6</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V33" t="n">
         <v>3.75</v>
@@ -5184,22 +5184,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5214,10 +5214,10 @@
         <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="n">
         <v>2.63</v>
@@ -5226,7 +5226,7 @@
         <v>1.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V34" t="n">
         <v>3.25</v>
@@ -5241,13 +5241,13 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
@@ -5256,7 +5256,7 @@
         <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
         <v>7</v>
@@ -5271,16 +5271,16 @@
         <v>13</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
         <v>29</v>
@@ -5329,22 +5329,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5353,25 +5353,25 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R35" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S35" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V35" t="n">
         <v>3.4</v>
@@ -5383,19 +5383,19 @@
         <v>2.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
         <v>23</v>
@@ -5416,13 +5416,13 @@
         <v>12</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM35" t="n">
         <v>17</v>
@@ -5436,10 +5436,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="36">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
@@ -5516,7 +5516,7 @@
         <v>1.44</v>
       </c>
       <c r="U36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V36" t="n">
         <v>3.25</v>
@@ -5639,16 +5639,16 @@
         <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
         <v>3.25</v>
@@ -5756,13 +5756,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
         <v>4.45</v>
@@ -5771,19 +5771,19 @@
         <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
       </c>
       <c r="P38" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q38" t="n">
         <v>2.1</v>
@@ -5804,22 +5804,22 @@
         <v>2.65</v>
       </c>
       <c r="W38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X38" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Y38" t="n">
         <v>10.75</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>13.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC38" t="n">
         <v>40</v>
@@ -5828,10 +5828,10 @@
         <v>45</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG38" t="n">
         <v>15.5</v>
@@ -5840,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
@@ -5855,7 +5855,7 @@
         <v>16.5</v>
       </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO38" t="n">
         <v>700</v>
@@ -5900,19 +5900,19 @@
         <v>1.44</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J39" t="n">
         <v>1.98</v>
       </c>
       <c r="K39" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -5920,19 +5920,19 @@
         <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R39" t="n">
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U39" t="n">
         <v>1.47</v>
@@ -5941,46 +5941,46 @@
         <v>2.32</v>
       </c>
       <c r="W39" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="X39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AA39" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG39" t="n">
         <v>32</v>
       </c>
       <c r="AH39" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AI39" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="n">
         <v>29</v>
@@ -5992,7 +5992,7 @@
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AO39" t="n">
         <v>101</v>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H40" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I40" t="n">
         <v>12.5</v>
@@ -6046,30 +6046,30 @@
         <v>1.7</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6078,61 +6078,61 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X40" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA40" t="n">
         <v>9</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>10.25</v>
       </c>
       <c r="AG40" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH40" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
         <v>110</v>
       </c>
       <c r="AK40" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AO40" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6315,54 +6315,54 @@
         <v>6.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S42" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T42" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V42" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W42" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="X42" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z42" t="n">
         <v>37</v>
@@ -6371,43 +6371,43 @@
         <v>23</v>
       </c>
       <c r="AB42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD42" t="n">
         <v>110</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AG42" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH42" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AJ42" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="n">
         <v>800</v>
@@ -6449,22 +6449,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H43" t="n">
         <v>4.7</v>
       </c>
       <c r="I43" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="K43" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L43" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6491,22 +6491,22 @@
         <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V43" t="n">
         <v>3.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X43" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Y43" t="n">
         <v>8.25</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
@@ -6530,7 +6530,7 @@
         <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -6539,7 +6539,7 @@
         <v>45</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
         <v>150</v>
@@ -6551,7 +6551,7 @@
         <v>60</v>
       </c>
       <c r="AO43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6596,16 +6596,16 @@
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -6626,7 +6626,7 @@
         <v>2.3</v>
       </c>
       <c r="S44" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T44" t="n">
         <v>1.55</v>
@@ -6635,7 +6635,7 @@
         <v>1.3</v>
       </c>
       <c r="V44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W44" t="n">
         <v>1.47</v>
@@ -6656,7 +6656,7 @@
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD44" t="n">
         <v>21</v>
@@ -6665,7 +6665,7 @@
         <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG44" t="n">
         <v>10.75</v>
@@ -6677,13 +6677,13 @@
         <v>12.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="n">
         <v>9.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
         <v>18</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -978,46 +978,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
         <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U4" t="n">
         <v>1.72</v>
@@ -1032,52 +1032,52 @@
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI4" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1119,43 +1119,43 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="L5" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.12</v>
@@ -1167,34 +1167,34 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1203,19 +1203,19 @@
         <v>150</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="n">
         <v>65</v>
@@ -1263,19 +1263,19 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
         <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K6" t="n">
         <v>1.87</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1305,7 +1305,7 @@
         <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W6" t="n">
         <v>1.95</v>
@@ -1314,7 +1314,7 @@
         <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1326,10 +1326,10 @@
         <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE6" t="n">
         <v>5.3</v>
@@ -1344,22 +1344,22 @@
         <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO6" t="n">
         <v>900</v>
@@ -1401,28 +1401,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1431,79 +1431,79 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD7" t="n">
         <v>60</v>
       </c>
-      <c r="AC7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>50</v>
-      </c>
       <c r="AE7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI7" t="n">
         <v>5.8</v>
       </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
@@ -1551,10 +1551,10 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L8" t="n">
         <v>5.5</v>
@@ -1647,10 +1647,10 @@
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1717,16 +1717,16 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.5</v>
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -1843,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1885,7 +1885,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -1903,7 +1903,7 @@
         <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
         <v>17</v>
@@ -1915,16 +1915,16 @@
         <v>6.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>9.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
         <v>34</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2027,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>9</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -2063,16 +2063,16 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
         <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>201</v>
@@ -2120,10 +2120,10 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2132,34 +2132,34 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.33</v>
       </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W12" t="n">
         <v>1.73</v>
@@ -2174,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2195,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
         <v>10</v>
@@ -2216,7 +2216,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.2</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2426,10 +2426,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>19</v>
@@ -2489,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2.1</v>
@@ -2552,13 +2552,13 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2585,10 +2585,10 @@
         <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -2600,13 +2600,13 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
@@ -2740,7 +2740,7 @@
         <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
         <v>7.5</v>
@@ -2770,10 +2770,10 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
         <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2875,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>21</v>
@@ -2893,19 +2893,19 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>41</v>
@@ -2914,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
         <v>8.5</v>
@@ -2968,22 +2968,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2998,16 +2998,16 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3016,22 +3016,22 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="n">
         <v>34</v>
@@ -3040,13 +3040,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>51</v>
@@ -3055,22 +3055,22 @@
         <v>7.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
         <v>8.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3109,94 +3109,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
         <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
         <v>6.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>9.5</v>
@@ -3205,13 +3205,13 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3250,19 +3250,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
@@ -3271,19 +3271,19 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>4</v>
@@ -3292,10 +3292,10 @@
         <v>1.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W20" t="n">
         <v>1.95</v>
@@ -3316,25 +3316,25 @@
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>10</v>
@@ -3534,10 +3534,10 @@
         <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -3657,28 +3657,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>
@@ -3687,16 +3687,16 @@
         <v>6.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
         <v>1.22</v>
@@ -3711,13 +3711,13 @@
         <v>2.38</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
         <v>12</v>
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3798,13 +3798,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3855,10 +3855,10 @@
         <v>7.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
         <v>21</v>
@@ -3885,7 +3885,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -3963,46 +3963,46 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.36</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.33</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
         <v>23</v>
@@ -4029,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -4038,7 +4038,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>151</v>
@@ -4110,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -4122,7 +4122,7 @@
         <v>1.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -4242,7 +4242,7 @@
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -4263,19 +4263,19 @@
         <v>1.33</v>
       </c>
       <c r="U27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
         <v>19</v>
@@ -4293,7 +4293,7 @@
         <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -4323,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4362,42 +4362,42 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.15</v>
+        <v>3.65</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="K28" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="U28" t="n">
         <v>1.38</v>
@@ -4406,61 +4406,61 @@
         <v>2.6</v>
       </c>
       <c r="W28" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="X28" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>8.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>13</v>
       </c>
-      <c r="AD28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AH28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
         <v>12</v>
       </c>
-      <c r="AF28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>14</v>
-      </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN28" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AO28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4499,42 +4499,42 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U29" t="n">
         <v>1.39</v>
@@ -4546,31 +4546,31 @@
         <v>1.72</v>
       </c>
       <c r="X29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC29" t="n">
         <v>32</v>
       </c>
-      <c r="AC29" t="n">
-        <v>25</v>
-      </c>
       <c r="AD29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
         <v>13.5</v>
@@ -4579,22 +4579,22 @@
         <v>65</v>
       </c>
       <c r="AI29" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AN29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
         <v>500</v>
@@ -4636,105 +4636,105 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.42</v>
+        <v>2.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S30" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="T30" t="n">
         <v>1.32</v>
       </c>
       <c r="U30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V30" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="W30" t="n">
         <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AB30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN30" t="n">
         <v>26</v>
       </c>
-      <c r="AC30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>28</v>
-      </c>
       <c r="AO30" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4773,30 +4773,30 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.2</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q31" t="n">
         <v>1.83</v>
@@ -4805,34 +4805,34 @@
         <v>1.78</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V31" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA31" t="n">
         <v>8.25</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
@@ -4841,16 +4841,16 @@
         <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="n">
         <v>7.1</v>
@@ -4859,19 +4859,19 @@
         <v>10.25</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4932,10 +4932,10 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S32" t="n">
         <v>1.83</v>
@@ -4946,10 +4946,10 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X32" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Y32" t="n">
         <v>7.9</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L33" t="n">
         <v>6</v>
@@ -5069,10 +5069,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S33" t="n">
         <v>2.2</v>
@@ -5081,7 +5081,7 @@
         <v>1.62</v>
       </c>
       <c r="U33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V33" t="n">
         <v>3.75</v>
@@ -5093,7 +5093,7 @@
         <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
         <v>8.5</v>
@@ -5123,7 +5123,7 @@
         <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
@@ -5184,22 +5184,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5214,10 +5214,10 @@
         <v>4.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="n">
         <v>2.63</v>
@@ -5226,28 +5226,28 @@
         <v>1.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V34" t="n">
         <v>3.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
@@ -5262,7 +5262,7 @@
         <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -5271,22 +5271,22 @@
         <v>13</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN34" t="n">
         <v>29</v>
       </c>
       <c r="AO34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5329,22 +5329,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
       </c>
       <c r="L35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5371,7 +5371,7 @@
         <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V35" t="n">
         <v>3.4</v>
@@ -5386,25 +5386,25 @@
         <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5413,19 +5413,19 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ35" t="n">
         <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN35" t="n">
         <v>21</v>
@@ -5436,10 +5436,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="36">
@@ -5516,7 +5516,7 @@
         <v>1.44</v>
       </c>
       <c r="U36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V36" t="n">
         <v>3.25</v>
@@ -5615,22 +5615,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J37" t="n">
         <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5639,37 +5639,37 @@
         <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="R37" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>13</v>
@@ -5678,7 +5678,7 @@
         <v>10</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
         <v>21</v>
@@ -5705,10 +5705,10 @@
         <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
         <v>21</v>
@@ -6034,42 +6034,42 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L40" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q40" t="n">
         <v>1.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="T40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U40" t="n">
         <v>1.38</v>
@@ -6078,22 +6078,22 @@
         <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="X40" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z40" t="n">
         <v>5.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC40" t="n">
         <v>11.5</v>
@@ -6102,13 +6102,13 @@
         <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH40" t="n">
         <v>150</v>
@@ -6117,13 +6117,13 @@
         <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="n">
         <v>40</v>
       </c>
       <c r="AL40" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AM40" t="n">
         <v>200</v>
@@ -6171,22 +6171,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H41" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I41" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J41" t="n">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="K41" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L41" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.11</v>
@@ -6198,10 +6198,10 @@
         <v>1.47</v>
       </c>
       <c r="P41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2.35</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.32</v>
       </c>
       <c r="R41" t="n">
         <v>1.47</v>
@@ -6213,43 +6213,43 @@
         <v>1.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V41" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W41" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X41" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB41" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD41" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AF41" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH41" t="n">
         <v>120</v>
@@ -6261,13 +6261,13 @@
         <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL41" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN41" t="n">
         <v>40</v>
@@ -6312,102 +6312,102 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J42" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L42" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="V42" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="W42" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="X42" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AC42" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF42" t="n">
         <v>7.6</v>
       </c>
-      <c r="AF42" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AG42" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH42" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AI42" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="AJ42" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AK42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN42" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AO42" t="n">
         <v>800</v>
@@ -6452,106 +6452,106 @@
         <v>1.35</v>
       </c>
       <c r="H43" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="I43" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K43" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L43" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="T43" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U43" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V43" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="W43" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="X43" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD43" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI43" t="n">
         <v>19</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>21</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
       </c>
       <c r="AK43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM43" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AO43" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AP43" t="inlineStr"/>
       <c r="AQ43" t="inlineStr"/>
@@ -6590,22 +6590,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K44" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -6614,40 +6614,40 @@
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R44" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S44" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W44" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X44" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA44" t="n">
         <v>9.5</v>
@@ -6656,16 +6656,16 @@
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="n">
         <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AG44" t="n">
         <v>10.75</v>
@@ -6674,22 +6674,22 @@
         <v>35</v>
       </c>
       <c r="AI44" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK44" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AN44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO44" t="n">
         <v>175</v>
@@ -6872,105 +6872,105 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="H46" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I46" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L46" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P46" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="R46" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="S46" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="T46" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="U46" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="V46" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="W46" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="X46" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AF46" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AI46" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AK46" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AM46" t="n">
         <v>175</v>
       </c>
       <c r="AN46" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AO46" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -710,28 +710,28 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
         <v>3.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -851,28 +851,28 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P3" t="n">
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -981,64 +981,64 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="L4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="N4" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
         <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
         <v>45</v>
@@ -1047,37 +1047,37 @@
         <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AJ4" t="n">
         <v>11.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1119,106 +1119,106 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="L5" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.85</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
         <v>5.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AF5" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AG5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>19</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1260,34 +1260,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.42</v>
@@ -1296,67 +1296,67 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="T6" t="n">
         <v>1.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V6" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
         <v>1.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
         <v>50</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
         <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>37</v>
@@ -1401,46 +1401,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
@@ -1455,49 +1455,49 @@
         <v>1.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AC7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="n">
         <v>60</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="n">
         <v>5.8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AK7" t="n">
         <v>8.25</v>
       </c>
       <c r="AL7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
@@ -1542,16 +1542,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>1.92</v>
@@ -1560,49 +1560,49 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1614,7 +1614,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
@@ -1629,7 +1629,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
@@ -1638,7 +1638,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>51</v>
@@ -1647,10 +1647,10 @@
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1687,19 +1687,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -1708,7 +1708,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1729,10 +1729,10 @@
         <v>1.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
         <v>2</v>
@@ -1768,10 +1768,10 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -1791,8 +1791,12 @@
       <c r="AO9" t="n">
         <v>401</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
@@ -1828,13 +1832,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -1843,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1858,16 +1862,16 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
@@ -1882,7 +1886,7 @@
         <v>1.73</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -1973,22 +1977,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2033,7 +2037,7 @@
         <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -2069,10 +2073,10 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>201</v>
@@ -2117,13 +2121,13 @@
         <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
@@ -2144,10 +2148,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
@@ -2174,19 +2178,19 @@
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2255,13 +2259,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.2</v>
@@ -2270,7 +2274,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2303,13 +2307,13 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
         <v>6.5</v>
@@ -2336,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2396,16 +2400,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
@@ -2414,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2426,10 +2430,10 @@
         <v>3.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2456,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
         <v>21</v>
@@ -2480,10 +2484,10 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
@@ -2537,7 +2541,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2552,7 +2556,7 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2561,10 +2565,10 @@
         <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
         <v>2.2</v>
@@ -2579,16 +2583,16 @@
         <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -2600,16 +2604,16 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -2636,7 +2640,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="n">
         <v>501</v>
@@ -2686,7 +2690,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2716,10 +2720,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2827,22 +2831,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2851,16 +2855,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2869,16 +2873,16 @@
         <v>1.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -2896,22 +2900,22 @@
         <v>34</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -2920,16 +2924,16 @@
         <v>8.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2974,7 +2978,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -2998,10 +3002,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3109,10 +3113,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
         <v>2.25</v>
@@ -3121,7 +3125,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
         <v>3.1</v>
@@ -3133,10 +3137,10 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
         <v>2.35</v>
@@ -3145,16 +3149,16 @@
         <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
         <v>2</v>
@@ -3181,10 +3185,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3211,10 +3215,14 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>401</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+        <v>451</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
     </row>
@@ -3250,28 +3258,28 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.25</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3304,19 +3312,19 @@
         <v>1.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
         <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>29</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
@@ -3325,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -3337,13 +3345,13 @@
         <v>6.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -3352,7 +3360,7 @@
         <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3391,32 +3399,32 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L21" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3429,55 +3437,55 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
         <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3546,10 +3554,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S22" t="n">
         <v>3.4</v>
@@ -3657,7 +3665,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -3681,22 +3689,22 @@
         <v>21</v>
       </c>
       <c r="O23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>1.22</v>
@@ -3828,10 +3836,10 @@
         <v>3.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
         <v>3.5</v>
@@ -4101,7 +4109,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4221,28 +4229,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -4251,10 +4259,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
         <v>3.25</v>
@@ -4269,61 +4277,61 @@
         <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>13</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
       </c>
       <c r="AI27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
       <c r="AK27" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4773,105 +4781,105 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>2.67</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="S31" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="U31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V31" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="W31" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
         <v>22</v>
       </c>
       <c r="AE31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AK31" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AL31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO31" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4916,7 +4924,7 @@
         <v>6.5</v>
       </c>
       <c r="I32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
         <v>1.4</v>
@@ -4925,7 +4933,7 @@
         <v>2.92</v>
       </c>
       <c r="L32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -4938,7 +4946,7 @@
         <v>2.9</v>
       </c>
       <c r="S32" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T32" t="n">
         <v>1.78</v>
@@ -4955,31 +4963,31 @@
         <v>7.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB32" t="n">
         <v>5.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
         <v>27</v>
       </c>
       <c r="AE32" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF32" t="n">
         <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI32" t="n">
         <v>55</v>
@@ -4988,7 +4996,7 @@
         <v>200</v>
       </c>
       <c r="AK32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
@@ -5069,10 +5077,10 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="n">
         <v>2.2</v>
@@ -5093,7 +5101,7 @@
         <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
         <v>8.5</v>
@@ -5102,7 +5110,7 @@
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
@@ -5117,7 +5125,7 @@
         <v>9.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
@@ -5129,7 +5137,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="n">
         <v>67</v>
@@ -5184,22 +5192,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L34" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5238,22 +5246,22 @@
         <v>2.2</v>
       </c>
       <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
         <v>9</v>
       </c>
-      <c r="Z34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
         <v>13</v>
@@ -5262,25 +5270,25 @@
         <v>7</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN34" t="n">
         <v>29</v>
@@ -5329,16 +5337,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>2.38</v>
@@ -5353,22 +5361,22 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R35" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.3</v>
@@ -5389,7 +5397,7 @@
         <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
         <v>34</v>
@@ -5398,13 +5406,13 @@
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5419,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL35" t="n">
         <v>21</v>
@@ -5436,10 +5444,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="36">
@@ -5474,61 +5482,61 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="R36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X36" t="n">
         <v>2.1</v>
       </c>
-      <c r="S36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
@@ -5537,19 +5545,19 @@
         <v>9</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5558,10 +5566,10 @@
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK36" t="n">
         <v>12</v>
@@ -5570,13 +5578,13 @@
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5756,28 +5764,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J38" t="n">
         <v>4.45</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
@@ -5804,16 +5812,16 @@
         <v>2.65</v>
       </c>
       <c r="W38" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="X38" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA38" t="n">
         <v>13.5</v>
@@ -5828,28 +5836,28 @@
         <v>45</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
         <v>80</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK38" t="n">
         <v>8.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM38" t="n">
         <v>16.5</v>
@@ -6321,96 +6329,96 @@
         <v>1.52</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L42" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W42" t="n">
         <v>1.98</v>
       </c>
-      <c r="R42" t="n">
+      <c r="X42" t="n">
         <v>1.65</v>
       </c>
-      <c r="S42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB42" t="n">
         <v>120</v>
       </c>
       <c r="AC42" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD42" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL42" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6590,91 +6598,91 @@
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S44" t="n">
         <v>2.42</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T44" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V44" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="W44" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X44" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="Y44" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB44" t="n">
         <v>29</v>
       </c>
       <c r="AC44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>16</v>
@@ -6683,16 +6691,16 @@
         <v>9.75</v>
       </c>
       <c r="AL44" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO44" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6872,22 +6880,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H46" t="n">
         <v>6.6</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="K46" t="n">
         <v>3.15</v>
       </c>
       <c r="L46" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -6916,7 +6924,7 @@
         <v>4.15</v>
       </c>
       <c r="W46" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X46" t="n">
         <v>1.7</v>
@@ -6931,22 +6939,22 @@
         <v>10.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC46" t="n">
         <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE46" t="n">
         <v>23</v>
       </c>
       <c r="AF46" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH46" t="n">
         <v>120</v>
@@ -6961,7 +6969,7 @@
         <v>45</v>
       </c>
       <c r="AL46" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AM46" t="n">
         <v>175</v>
@@ -6970,7 +6978,7 @@
         <v>120</v>
       </c>
       <c r="AO46" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -710,28 +710,28 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
         <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>3.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -851,28 +851,28 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -1119,28 +1119,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="L5" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1155,49 +1155,49 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="T5" t="n">
         <v>1.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>40</v>
       </c>
       <c r="AE5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF5" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AG5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>100</v>
@@ -1206,16 +1206,16 @@
         <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN5" t="n">
         <v>50</v>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L6" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1287,19 +1287,19 @@
         <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="U6" t="n">
         <v>1.52</v>
@@ -1308,22 +1308,22 @@
         <v>2.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
         <v>12.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC6" t="n">
         <v>40</v>
@@ -1338,13 +1338,13 @@
         <v>5.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.75</v>
@@ -1359,10 +1359,10 @@
         <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO6" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1401,46 +1401,46 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J7" t="n">
         <v>5.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.4</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
@@ -1449,55 +1449,55 @@
         <v>2.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF7" t="n">
         <v>6.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
         <v>8.25</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
@@ -1548,28 +1548,28 @@
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
         <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.75</v>
@@ -1581,19 +1581,19 @@
         <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1605,7 +1605,7 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>19</v>
@@ -1614,16 +1614,16 @@
         <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1641,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO8" t="n">
         <v>501</v>
@@ -1687,19 +1687,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -1708,7 +1708,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1717,22 +1717,22 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W9" t="n">
         <v>2</v>
@@ -1771,7 +1771,7 @@
         <v>67</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
@@ -1789,7 +1789,7 @@
         <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AP9" t="n">
         <v>1.78</v>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>2.88</v>
@@ -1856,22 +1856,22 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U10" t="n">
         <v>1.5</v>
@@ -1880,10 +1880,10 @@
         <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1892,40 +1892,40 @@
         <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>9.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>19</v>
@@ -1934,7 +1934,7 @@
         <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AP10" t="n">
         <v>1.78</v>
@@ -1983,7 +1983,7 @@
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>2.6</v>
@@ -1992,25 +1992,25 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
         <v>3.2</v>
@@ -2019,22 +2019,22 @@
         <v>1.36</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y11" t="n">
         <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
@@ -2046,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
@@ -2073,10 +2073,10 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
         <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>201</v>
@@ -2142,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.98</v>
@@ -2259,22 +2259,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2307,22 +2307,22 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>8.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2340,22 +2340,22 @@
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2487,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>7</v>
@@ -2556,13 +2556,13 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2571,31 +2571,31 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2604,25 +2604,25 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2631,16 +2631,16 @@
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>81</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>501</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
@@ -2720,10 +2720,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2837,7 +2837,7 @@
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2855,16 +2855,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2978,7 +2978,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -3002,10 +3002,10 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>2.25</v>
@@ -3125,49 +3125,49 @@
         <v>4</v>
       </c>
       <c r="K19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.95</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2</v>
-      </c>
       <c r="X19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
@@ -3185,19 +3185,19 @@
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
         <v>10</v>
@@ -3215,13 +3215,13 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3276,10 +3276,10 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -3300,7 +3300,7 @@
         <v>1.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V20" t="n">
         <v>2.5</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>2.88</v>
@@ -3554,10 +3554,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>3.4</v>
@@ -3584,7 +3584,7 @@
         <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
         <v>21</v>
@@ -3665,16 +3665,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
         <v>5.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K23" t="n">
         <v>2.63</v>
@@ -3707,28 +3707,28 @@
         <v>1.67</v>
       </c>
       <c r="U23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3737,10 +3737,10 @@
         <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG23" t="n">
         <v>15</v>
@@ -3806,22 +3806,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.88</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3830,22 +3830,22 @@
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
         <v>1.44</v>
@@ -3860,19 +3860,19 @@
         <v>1.91</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
         <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>29</v>
@@ -3890,19 +3890,19 @@
         <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>34</v>
@@ -3977,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R25" t="n">
         <v>2.05</v>
@@ -4088,28 +4088,28 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4118,7 +4118,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -4136,25 +4136,25 @@
         <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD26" t="n">
         <v>29</v>
@@ -4163,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
@@ -4172,19 +4172,19 @@
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>23</v>
@@ -4781,42 +4781,42 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J31" t="n">
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L31" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S31" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="T31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U31" t="n">
         <v>1.38</v>
@@ -4825,22 +4825,22 @@
         <v>2.47</v>
       </c>
       <c r="W31" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X31" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA31" t="n">
         <v>9</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC31" t="n">
         <v>19</v>
@@ -4849,19 +4849,19 @@
         <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
         <v>10.25</v>
       </c>
       <c r="AH31" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AJ31" t="n">
         <v>9.5</v>
@@ -4870,7 +4870,7 @@
         <v>7.4</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM31" t="n">
         <v>13</v>
@@ -4918,94 +4918,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="H32" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="K32" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R32" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>2.36</v>
+        <v>2.13</v>
       </c>
       <c r="X32" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AB32" t="n">
         <v>5.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG32" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
         <v>120</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ32" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL32" t="n">
         <v>101</v>
       </c>
       <c r="AM32" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN32" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AO32" t="n">
         <v>500</v>
@@ -5047,52 +5047,52 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W33" t="n">
         <v>1.67</v>
@@ -5101,7 +5101,7 @@
         <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
         <v>8.5</v>
@@ -5119,10 +5119,10 @@
         <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
         <v>15</v>
@@ -5134,7 +5134,7 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
         <v>19</v>
@@ -5154,10 +5154,10 @@
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="34">
@@ -5192,22 +5192,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -5216,22 +5216,22 @@
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U34" t="n">
         <v>1.33</v>
@@ -5249,16 +5249,16 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="n">
         <v>23</v>
@@ -5267,7 +5267,7 @@
         <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG34" t="n">
         <v>12</v>
@@ -5279,10 +5279,10 @@
         <v>12</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL34" t="n">
         <v>34</v>
@@ -5337,22 +5337,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5361,34 +5361,34 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X35" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2.5</v>
       </c>
       <c r="Y35" t="n">
         <v>13</v>
@@ -5397,40 +5397,40 @@
         <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
         <v>15</v>
@@ -5439,7 +5439,7 @@
         <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5512,10 +5512,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S36" t="n">
         <v>3.25</v>
@@ -5653,10 +5653,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S37" t="n">
         <v>3</v>
@@ -5764,28 +5764,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.37</v>
@@ -5812,55 +5812,55 @@
         <v>2.65</v>
       </c>
       <c r="W38" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X38" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Y38" t="n">
         <v>10.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB38" t="n">
         <v>70</v>
       </c>
       <c r="AC38" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF38" t="n">
         <v>6.1</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
         <v>80</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN38" t="n">
         <v>30</v>
@@ -6320,16 +6320,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I42" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K42" t="n">
         <v>2.2</v>
@@ -6343,19 +6343,19 @@
         <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U42" t="n">
         <v>1.39</v>
@@ -6379,28 +6379,28 @@
         <v>19.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AC42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG42" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH42" t="n">
         <v>110</v>
       </c>
       <c r="AI42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AJ42" t="n">
         <v>6.5</v>
@@ -6409,7 +6409,7 @@
         <v>8.25</v>
       </c>
       <c r="AL42" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
         <v>13</v>
@@ -6457,22 +6457,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H43" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J43" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K43" t="n">
         <v>2.45</v>
       </c>
       <c r="L43" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6505,7 +6505,7 @@
         <v>3.1</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X43" t="n">
         <v>1.75</v>
@@ -6514,19 +6514,19 @@
         <v>7.1</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA43" t="n">
         <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AC43" t="n">
         <v>11.25</v>
       </c>
       <c r="AD43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE43" t="n">
         <v>8.5</v>
@@ -6547,16 +6547,16 @@
         <v>45</v>
       </c>
       <c r="AK43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AM43" t="n">
         <v>80</v>
       </c>
       <c r="AN43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO43" t="n">
         <v>800</v>
@@ -6883,84 +6883,84 @@
         <v>1.15</v>
       </c>
       <c r="H46" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="K46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L46" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P46" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="R46" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="S46" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T46" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="U46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="V46" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="W46" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X46" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC46" t="n">
         <v>10.25</v>
       </c>
-      <c r="Z46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE46" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="n">
         <v>120</v>
@@ -6969,16 +6969,16 @@
         <v>45</v>
       </c>
       <c r="AL46" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AM46" t="n">
         <v>175</v>
       </c>
       <c r="AN46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO46" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y2" t="n">
         <v>4.33</v>
@@ -884,7 +884,7 @@
         <v>3.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.33</v>
@@ -981,103 +981,103 @@
         <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.9</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.87</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="X4" t="n">
         <v>1.45</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="Z4" t="n">
         <v>13.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
         <v>45</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AF4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="n">
         <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1119,109 +1119,109 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="L5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>5.4</v>
+        <v>4.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.4</v>
+        <v>4.65</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>12.5</v>
       </c>
       <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN5" t="n">
         <v>55</v>
       </c>
-      <c r="AM5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>50</v>
-      </c>
       <c r="AO5" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
         <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L6" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.12</v>
@@ -1287,16 +1287,16 @@
         <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
         <v>1.19</v>
@@ -1314,22 +1314,22 @@
         <v>1.78</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE6" t="n">
         <v>5.4</v>
@@ -1341,28 +1341,28 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM6" t="n">
         <v>23</v>
       </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
       <c r="AN6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1428,7 +1428,7 @@
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.18</v>
@@ -1449,40 +1449,40 @@
         <v>2.42</v>
       </c>
       <c r="W7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>1.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD7" t="n">
         <v>55</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>65</v>
       </c>
       <c r="AE7" t="n">
         <v>6.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="n">
         <v>5.7</v>
@@ -1491,13 +1491,13 @@
         <v>7.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
@@ -1542,115 +1542,115 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
         <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
         <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>67</v>
       </c>
       <c r="AO8" t="n">
         <v>501</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1711,16 +1711,16 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>4.33</v>
@@ -1729,22 +1729,22 @@
         <v>1.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>9.5</v>
@@ -1759,16 +1759,16 @@
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
         <v>8.5</v>
@@ -1777,19 +1777,19 @@
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>41</v>
       </c>
       <c r="AO9" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AP9" t="n">
         <v>1.78</v>
@@ -1832,115 +1832,115 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF10" t="n">
         <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO10" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2007,16 +2007,16 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U11" t="n">
         <v>1.36</v>
@@ -2025,22 +2025,22 @@
         <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
         <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>8.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2061,22 +2061,22 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>201</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2148,16 +2148,16 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2184,13 +2184,13 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2259,28 +2259,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2316,13 +2316,13 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
         <v>8.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2346,16 +2346,16 @@
         <v>12</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="n">
         <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2400,19 +2400,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -2424,10 +2424,10 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>2.2</v>
@@ -2436,28 +2436,28 @@
         <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
@@ -2469,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2490,10 +2490,10 @@
         <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -2502,10 +2502,14 @@
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
     </row>
@@ -2541,28 +2545,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -2571,22 +2575,22 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
         <v>2.5</v>
@@ -2598,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA15" t="n">
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2613,10 +2617,10 @@
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -2625,16 +2629,16 @@
         <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM15" t="n">
         <v>67</v>
@@ -2714,16 +2718,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2732,19 +2736,19 @@
         <v>1.33</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="n">
         <v>7.5</v>
@@ -2762,7 +2766,7 @@
         <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
@@ -2831,22 +2835,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2855,22 +2859,22 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U17" t="n">
         <v>1.4</v>
@@ -2879,25 +2883,25 @@
         <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="n">
         <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>34</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2906,25 +2910,25 @@
         <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK17" t="n">
         <v>8.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -2933,7 +2937,7 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2972,13 +2976,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -2987,25 +2991,25 @@
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>3.25</v>
@@ -3026,7 +3030,7 @@
         <v>1.95</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
@@ -3038,7 +3042,7 @@
         <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
         <v>41</v>
@@ -3056,10 +3060,10 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>8.5</v>
@@ -3113,22 +3117,22 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3137,25 +3141,25 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
         <v>2.5</v>
@@ -3167,13 +3171,13 @@
         <v>1.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
         <v>34</v>
@@ -3185,7 +3189,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
         <v>6.5</v>
@@ -3215,7 +3219,7 @@
         <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AP19" t="n">
         <v>1.78</v>
@@ -3258,16 +3262,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -3294,13 +3298,13 @@
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
         <v>2.5</v>
@@ -3312,19 +3316,19 @@
         <v>1.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD20" t="n">
         <v>41</v>
@@ -3348,10 +3352,10 @@
         <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -3524,28 +3528,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -3554,10 +3558,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S22" t="n">
         <v>3.4</v>
@@ -3581,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
         <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>17</v>
@@ -3608,7 +3612,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>17</v>
@@ -3686,7 +3690,7 @@
         <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1.13</v>
@@ -3830,10 +3834,10 @@
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
         <v>2.05</v>
@@ -3842,10 +3846,10 @@
         <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U24" t="n">
         <v>1.44</v>
@@ -5047,52 +5051,52 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L33" t="n">
         <v>6</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R33" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="S33" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W33" t="n">
         <v>1.67</v>
@@ -5101,7 +5105,7 @@
         <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
         <v>8.5</v>
@@ -5110,7 +5114,7 @@
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
@@ -5119,28 +5123,28 @@
         <v>21</v>
       </c>
       <c r="AE33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG33" t="n">
         <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>41</v>
       </c>
       <c r="AI33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="n">
         <v>21</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>19</v>
-      </c>
       <c r="AL33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
@@ -5154,10 +5158,10 @@
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS33" t="n">
         <v>1.95</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="34">
@@ -5192,61 +5196,61 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
         <v>3.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S34" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X34" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
@@ -5258,51 +5262,51 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG34" t="n">
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>11</v>
       </c>
       <c r="AL34" t="n">
         <v>34</v>
       </c>
       <c r="AM34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="35">
@@ -5337,7 +5341,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
@@ -5355,10 +5359,10 @@
         <v>2.63</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
         <v>1.2</v>
@@ -5367,10 +5371,10 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>2.63</v>
@@ -5400,16 +5404,16 @@
         <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD35" t="n">
         <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -5421,10 +5425,10 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
         <v>9</v>
@@ -5439,7 +5443,7 @@
         <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5482,82 +5486,82 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V36" t="n">
         <v>3.25</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="W36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X36" t="n">
         <v>2.2</v>
       </c>
-      <c r="L36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>11</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X36" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5566,25 +5570,25 @@
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
         <v>12</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="n">
         <v>26</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5623,22 +5627,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5647,22 +5651,22 @@
         <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
         <v>1.4</v>
@@ -5677,16 +5681,16 @@
         <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
         <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
         <v>21</v>
@@ -5695,7 +5699,7 @@
         <v>29</v>
       </c>
       <c r="AE37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>6.5</v>
@@ -5707,16 +5711,16 @@
         <v>41</v>
       </c>
       <c r="AI37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
         <v>21</v>
@@ -6463,16 +6467,16 @@
         <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K43" t="n">
         <v>2.45</v>
       </c>
       <c r="L43" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6493,7 +6497,7 @@
         <v>2.1</v>
       </c>
       <c r="S43" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="T43" t="n">
         <v>1.44</v>
@@ -6505,13 +6509,13 @@
         <v>3.1</v>
       </c>
       <c r="W43" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X43" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z43" t="n">
         <v>6.6</v>
@@ -6535,13 +6539,13 @@
         <v>9.25</v>
       </c>
       <c r="AG43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH43" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ43" t="n">
         <v>45</v>
@@ -6553,7 +6557,7 @@
         <v>150</v>
       </c>
       <c r="AM43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN43" t="n">
         <v>70</v>
@@ -6598,22 +6602,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="H44" t="n">
         <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -6652,19 +6656,19 @@
         <v>2.42</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="n">
         <v>22</v>
@@ -6682,19 +6686,19 @@
         <v>37</v>
       </c>
       <c r="AI44" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ44" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AM44" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AN44" t="n">
         <v>22</v>
@@ -6739,52 +6743,52 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="K45" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="U45" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V45" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="W45" t="n">
         <v>1.65</v>
@@ -6793,52 +6797,52 @@
         <v>2.12</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AB45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC45" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>11.5</v>
       </c>
       <c r="AD45" t="n">
         <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
         <v>50</v>
       </c>
       <c r="AI45" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AJ45" t="n">
         <v>35</v>
       </c>
       <c r="AK45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN45" t="n">
         <v>45</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>40</v>
       </c>
       <c r="AO45" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -716,10 +716,10 @@
         <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>3.6</v>
@@ -734,16 +734,16 @@
         <v>1.07</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" t="n">
         <v>4.33</v>
@@ -833,55 +833,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
         <v>1.3</v>
@@ -890,58 +890,58 @@
         <v>4.33</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>51</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM3" t="n">
         <v>151</v>
       </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>81</v>
-      </c>
       <c r="AN3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AO3" t="n">
         <v>101</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-11.xlsx
@@ -698,22 +698,22 @@
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O2" t="n">
         <v>1.83</v>
@@ -722,22 +722,22 @@
         <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>26</v>
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -776,7 +776,7 @@
         <v>151</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -788,7 +788,7 @@
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
         <v>81</v>
@@ -833,115 +833,115 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.33</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.33</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>51</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>41</v>
       </c>
-      <c r="AH3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AO3" t="n">
         <v>101</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
